--- a/Batch/15/In_Class/_Day_1.xlsx
+++ b/Batch/15/In_Class/_Day_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\15\In_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291DCC3E-5CB7-4BFD-9260-C6760CC7DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5367252E-17D7-40C4-8892-C1EEA8C84F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_to_Data_Science" sheetId="3" r:id="rId1"/>
@@ -3654,16 +3654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1843368</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1695687</xdr:colOff>
+      <xdr:colOff>1678878</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>151083</xdr:rowOff>
+      <xdr:rowOff>156686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3686,8 +3686,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505808" y="22266519"/>
-          <a:ext cx="1695687" cy="1066949"/>
+          <a:off x="2493309" y="21717001"/>
+          <a:ext cx="1695687" cy="1047553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4748,40 +4748,40 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1876 538 80,'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.04">2201 91 4066,'0'0'10607,"-7"-9"-9918,-19-25-196,19 25 190,74 6-647,75-13 0,-76 7-414,77-1 1,-144 36-7810,-8-11 5193,-11 0-399</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="925.99">2441 60 3698,'0'0'6040,"0"-3"-5557,0 4-442,0 71 1712,-14 111 1,13-176-875,-1 4-3542,2-11 2537,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0-1 0,13-6-4447</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1967.15">2731 216 1217,'0'0'7731,"2"-3"-6797,9-24 571,-56 29-1423,40 0-82,0 0-1,0 1 1,0 0-1,1-1 0,-1 1 1,1 1-1,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,-2 5 0,2-1 24,-1 0 0,1 0 0,1 1-1,0-1 1,0 1 0,1-1 0,0 1-1,1 10 1,0-19-15,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,2 0 0,38-8 262,-33 4-238,-1 0-1,1 0 0,-1-1 1,0 1-1,0-2 1,10-10-1,-14 13-4,0 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,-1-1 0,0 0 0,1 0-1,-1-9 1,0 16-29,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,4 0 0,0 1 22,1-1 0,0 0 1,-1 0-1,1-1 0,0 0 1,-1-1-1,1 1 0,-1-1 1,1-1-1,12-5 0,-16 6-29,1-1-1,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 0,1-5 1,-1-1 83,-1-1 0,0 1-1,0-1 1,-1 0 0,-1-19 0,-2 48-125,1 1-1,-9 29 1,0 15 379,1-2 806,9-62-1064,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,1 0-1,-1 1 1,1-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,2-2 0,0 0-97,0 1 0,0 0 1,1-1-1,0 1 0,0 0 0,0 1 1,0-1-1,0 1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,0 0 1,0 0-1,0 1 0,0-1 0,1 1 0,-1 0 1,0 0-1,1 1 0,-1 0 0,1 0 1,-1 0-1,8 1 0,-11 0 9,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 4 1,1-2-4,-1-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,-1 1 0,0-1-1,1 1 1,-1-1 0,-1 0 0,1 1-1,0-1 1,-1 0 0,0 0 0,1 0-1,-1 0 1,-4 4 0,-1-2 73,0-1 0,0 0 1,-1 0-1,1-1 0,-1 1 1,0-2-1,0 1 0,0-1 0,0-1 1,0 0-1,0 0 0,0 0 1,-1-1-1,-9-1 0,15 0-129,0 1 0,0-1 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,1 0 0,-1-1 1,0 1-1,0-1 0,1 0 0,-2-3 0,17 5-6523,3-4 1243</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2154.05">3203 219 1505,'0'0'1360</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4167.54">3261 180 384,'0'0'7761,"0"-11"-3025,-9 222-3117,10-210-1614,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 0,2-1 1,2 0 27,1 0 0,-1 0 1,1-1-1,-1 0 0,0 0 1,0 0-1,1 0 0,5-5 1,-4 1-23,0 1 0,-1-1 0,0 0 0,0 0 1,-1-1-1,0 0 0,0 0 0,0 0 0,6-15 1,-7 10-22,-1 1 0,0 0 1,-1-1-1,0 1 0,-1-1 1,0 0-1,-1-12 0,0 23-83,0 43-777,-1-18 944,1-17-30,-1 1 0,1-1 0,0 1 0,1-1 0,0 1 0,2 8 0,-2-14-30,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,3-2 0,2 0 8,1 0 1,-1 0-1,0-1 0,0 0 0,1 0 0,-1-1 0,-1 0 1,1 0-1,0-1 0,-1 0 0,0 0 0,0 0 1,0-1-1,0 0 0,-1 0 0,1-1 0,-2 1 0,1-1 1,0 0-1,-1 0 0,7-14 0,-4 6-153,1 0 0,-2-1-1,0 0 1,-1 0 0,0 0 0,-1 0 0,-1-1-1,-1 0 1,2-22 0,-4-37-467,-13 98-232,6 3 1031,0 0-1,2 0 1,1 0-1,1 1 1,1 0-1,3 50 1,0-72-175,-1-1 0,1 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,1-1 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 1,1-1-1,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,1 0 0,-1 0 1,7-2-1,-6 2-2,1-1 1,-1 1 0,0-1-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0-8 1,-1 5-55,0 0 0,-1 1 0,0-1-1,-1 0 1,0 0 0,0 1 0,-2-9 0,3 16 7,0-1-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,0-1 1,0 1 0,0 0-1,-2 0-14,1 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,1 1-1,-1-1 0,-2 5 1,0-1-19,1 1 1,-1 0 0,1 0 0,0 0 0,0 0-1,0 1 1,1-1 0,0 1 0,1 0 0,-1-1-1,1 1 1,0 0 0,1 0 0,0 0 0,0 8-1,3-15 19,0 0-1,-1 1 1,1-1-1,0-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0-1 1,-1 0-1,5-2 1,-2-1 31,0 0 1,0 0 0,0 0 0,-1-1 0,0 0-1,6-9 1,14-15-97,-24 28 70,9 44-11,-9-35 162,2 0 0,-1-1-1,1 1 1,0-1 0,0 0 0,1 1-1,0-1 1,7 11 0,-10-17-81,1 1 0,0-1 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 0,-1-1 0,1-1 0,7-7 19,-1 1 0,-1-1 0,1 0-1,8-18 1,-10 17-97,0 1 0,1-1 1,0 2-1,11-12 0,-15 18-2,0 0 1,0 1-1,0-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 1 0,1-1 1,-1 1-1,6-1 0,-9 1 31,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,1 0 0,15 38 41,-16-36 71,0 0 1,0-1 0,0 1 0,1 0 0,0-1-1,-1 1 1,1-1 0,1 1 0,-1-1 0,0 0-1,1 0 1,5 5 0,-2-6-32,0-1-1,1 0 1,-1 0 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 0-1,1 0 1,-1-1 0,7-2 0,-11 3-43,133-35 178,-79 16-2574,-67 20-4383</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5649.75">2014 918 3570,'0'0'8126,"0"-7"-7039,0 4-869,0 6-106,-44 881 2033,-6-549-1777,-22 220 622,61-441-807,-4 79-1004,16-195 631,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,3-1 0,7-10-1150,23-35-3446</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6368.82">2922 1131 1345,'0'0'6282,"0"-6"-5284,0-18 5,0 18 3151,-4 17-3908,-11 61 188,-9 98-1,5-25-86,-34 178 229,-75 481-61,121-735-281,3 103 0,4-119-262,12-62-2320,9-18-936,9-14-1902</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7053.86">3689 908 5202,'0'0'3303,"0"22"-2524,0 383 2633,0-364-3225,0 127 584,-23 178 0,-30 24 51,-18 152-51,66-421-696,5-101-103,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0-1 0,1 1 0,19-14-2142,2-18-1893</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7602.57">4579 756 4130,'0'0'5138,"0"22"-4305,10 350 2328,12 470-538,-26-764-2481,-3 1 0,-27 122 0,29-182-1792,5-18 1554,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,-7-11-4570</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8788.79">1929 897 1745,'0'0'5130,"14"0"-4212,221-12 1563,434-28-214,-77 8-2154,66 4 44,-358 22-98,52-24 213,-341 27 74</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10126.89">1952 1378 4002,'0'0'1851,"17"0"-682,350-18 2859,-156 14-2979,508-39-585,-714 43-464,132-20 31,181-3-1,-199 24-6,285-13 6,-298 5-3,-62 5-18,0-2-1,-1-1 1,45-13-1,-83 17 0,91-27 350,-58 16-529,-30 9-148,-10 3-210,-89 21-4066,38-10-495</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11086.09">1951 1889 1169,'0'0'1360,"17"0"-159,355-47 3976,-116 9-3727,464-25-766,-655 58-675,349-21 66,117 5-158,-404 13 388,-58 3-5471</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12223.54">1943 2359 1473,'0'0'7795,"-8"0"-6693,6 0-1100,7 0 188,285-21 1978,-13-1-1697,389-23-288,-651 44-182,209-15 28,224 14 0,-295 8-3,201-19-1,-144-12 23,-210 25-45,27-3-1768,-1-4-6173,-25 5 5489</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13473.53">1854 3025 144,'0'0'5664,"11"-1"-4477,30-4 304,44-12-1,41-7-31,611-3 935,-388 23-2310,-84-15-6,-9 0 79,444-25 692,-643 40-751,33 5 219,-71 1-150,1-2 0,0 0 1,-1-1-1,1 0 0,24-7 1,-28-1-739,-16 8 335,1 1 1,-1-1 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1-1 1,-12-9-6253</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14190.64">4669 2182 256,'0'0'3055,"-5"16"-1961,-65 302 3945,16-67-2197,51-231-2601,0 0 0,1 31 0,1-32 187,0-1-1,-7 36 1,8-34-1402,0-29-2339</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15508.14">2896 957 1409,'0'0'3495,"-22"-18"-438,22-18 2127,11 21-4966,-11 15-223,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,5 41 139,-2 0-1,-4 82 1,-1-43 180,2 75-1720,10-166-4037,2 2 1284</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16916.03">2281 1062 0,'0'0'4453,"-6"20"-3773,-2 4-428,-1 7 167,0 1 1,-4 32-1,-121 894 3457,41-391-2416,92-554-1530,-1 3 356,1-26-4002,3-18-30,9-13-811</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17395.09">2384 1123 352,'0'0'4565,"0"-5"-4319,0 9 49,-3 42 1037,-12 75-1,-2 4-621,5 96 83,-8 96 172,-69 256-103,58-399-742,26-149-77,5-24-608,15-59-2696,6 1 537,1-17-643</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17815.45">2562 1033 1024,'0'0'3792,"0"5"-3635,-4 63 833,-3 0-1,-20 88 1,2-12-120,-13 110 292,-74 604 85,111-827-1439,1-30-446,2-4-589,27-58-2988,-11 7 755</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18197.75">2677 1062 688,'0'0'1212,"-2"16"140,-25 160 1210,-19 155 228,23-32-1585,-52 380 255,49-513-2418,27-173-4263,10-22 931</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18604.3">2798 1088 880,'0'0'4789,"-1"1"-4207,-4 7-491,1-1 1,0 1-1,0 0 0,1 0 0,0 0 1,0 0-1,1 0 0,-2 10 1,-4 12 249,-22 81 1029,-24 174 0,8 121 564,36-298-1790,8-27-115,2-54-4996,0-40 1163</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19477.02">2290 1339 3650,'0'0'9471,"-5"-9"-8263,4 7-1185,-2-4 109,0 1 0,0 0 0,0-1 0,-1 1-1,0 0 1,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,-1 1 1,-7-4 0,-16-2-109,0 1 0,0 1-1,-1 2 1,-42-3 0,-126 5-135,88 4 91,96-1 13,-155-8-28,143 5 26,0 0 1,1-2-1,-1-1 0,-35-14 0,59 19-44,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0 0 1,0-1-1,0 0 0,0-1 0,0 2-151,1 1-1,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,14-9-4110</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21849.32">201 1139 976,'0'0'7358,"-2"-10"-6176,1 4-1206,-9-34 1787,9 39-1666,0-1 1,0 0 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,1 1 1,-1 0 0,-2-1 0,-1 2-104,1-1 1,0 0 0,0 1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,1 1 1,-6 4 0,2 0-5,1-1 1,0 1 0,1 0 0,0 0 0,0 1-1,-7 14 1,4-5 26,2 0 0,0 1 0,0 0 0,2 0-1,0 0 1,-2 28 0,5-34-4,1 1 1,0 0-1,1-1 1,0 0-1,1 1 0,7 23 1,-8-32-9,0-1 1,1 1 0,-1-1 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 0-1,0 1 1,1-2 0,-1 1-1,0 0 1,1-1 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1-1-1,8 1 1,2 0 10,-1-1 0,1 0 0,-1-1 1,1 0-1,-1-1 0,1 0 0,-1-1 0,0-1 0,0 0 0,19-10 1,-22 9-26,0-1 0,-1 1 1,0-2-1,-1 1 0,1-1 1,-1 0-1,-1-1 1,1 0-1,-1 0 0,0 0 1,-1-1-1,0 0 0,-1 0 1,4-9-1,-6 15 13,1-4 5,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0-12-1,-2 31-14,-1 3-28,1 1 0,0 0 0,1 0 0,1 0 0,1 0 0,0-1 0,1 1 0,0-1-1,7 15 1,-11-29 46,1 1-1,-1-1 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,-1 0 1,0 0-1,1-1 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 1,2-3-1,0 0 21,0-1-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1-1 0,0 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1-8 1,-1 5-74,0 1-1,-1-1 0,0 0 1,-1 1-1,1-1 1,-1 1-1,-1-1 0,1 1 1,-1 0-1,0-1 1,0 1-1,-1 0 1,-4-8-1,5 11-37,-1 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 1 0,0 0-1,0-1 1,0 1 0,0 1 0,-1-1-1,1 1 1,-8 0 0,10 0 60,0 1 1,0 0-1,-1 0 1,1-1-1,0 2 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,1 3 1,-2-2 26,1 0 1,-1 0 0,1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,-1 1-1,2-1 1,-1 0 0,0 0 0,0 0 0,3 2-1,2-2 15,-1-1-1,0 1 0,1-1 0,-1 0 0,0-1 0,1 1 0,-1-2 0,1 1 0,-1 0 0,1-1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 0,0-1 0,-1-1 0,1 1 0,-1-1 0,9-8 0,-2 2-31,0-1 1,0-1-1,-1 0 0,-1 0 1,0-1-1,0 0 0,-2-1 1,9-16-1,-12 15 9,-1 0 0,0 1 0,-1-2 0,-1 1 0,0 0 0,-1-1 1,0 1-1,-4-25 0,3-1-90,-3 14 47,-2 42-161,-5 45 220,-4 240 1497,15-293-1486,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1-1 0,1 1 0,1-1 0,-1 0 0,5 6 0,-7-10-9,0 0-1,0-1 1,0 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,2-2 1,1-2 11,0 0-1,0 1 1,-1-2 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 0-1,0 1 1,0-1 0,-1 0-1,1-8 1,9-80-21,-9 75-14,-2-35-205,0 39-245,0 38 38,-1 5 394,1-12 40,-1 0-1,2 0 1,2 17 0,-2-30-8,-1 1 1,1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,4 3 0,-5-4 5,-1 0 1,0 0 0,1-1-1,-1 1 1,1 0 0,-1-1-1,0 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,3-2-1,-2 0-1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,1-1 1,0-2 0,1-5-9,0 0 0,0-1 1,-1 1-1,0 0 0,0-21 1,-2-57-767,-2 128 611,1-29 237,0 0-1,0 0 1,1 0-1,1 0 1,0 0 0,4 17-1,-4-25-119,0 0 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 1 0,0-1 0,0-1 0,0 1-1,0 0 1,0-1 0,1 0 0,-1 0 0,4 0 0,41-1-4743,-25-5 1237</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22203.88">1065 1167 3586,'0'0'6525,"-3"6"-6327,-3 10 240,1 0 0,0 1 0,1 0 1,1 0-1,0 0 0,2 0 0,0 34 0,1-50-134,2-28 782,7 6-1021,1 0-1,0 1 1,20-29-1,-20 34-186,-10 14 110,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,1 0 0,-1-1 0,0 1-1,1-1 1,-1 1 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,13 45-120,-11-38 234,32 104 479,-34-112-573,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,18-22 223,1-9-146,-12 18-136,1 0 1,1 0-1,0 1 0,0 0 1,18-17-1,-27 30 38,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,15 43 167,-11-30-159,17 22-1880,-21-35 1682,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,0-1-1,-1 0 1,1 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1 0,1-1 0,7-12-1916</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22552.39">1426 1211 208,'0'0'6558,"0"-10"-5499,0-21-193,0 62 1744,0 58-705,26-114-1222,-14 8-540,-7 8-173,1 1 0,0-1-1,0 2 1,13-13 0,-18 19 39,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,2 2-1,4 6-137,-3-4 315,0 0 1,1-1 0,-1 1-1,1-1 1,0 0-1,5 5 1,-7-8-525,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,1 0 0,-1 1-1,3-1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24544.75">1951 2608 4610,'0'0'2713,"21"-5"-2056,-2-1-515,21-5 557,81-13-1,282 12 113,-212 12-576,590-39-539,-612 28-409,-78 6-4324</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25281.36">2188 2560 3794,'0'0'1435,"24"-3"-608,162-17 1011,333-21 218,3 37-1855,-335 5-187,-10 9 300,-53 0-1455,-41-10-2944</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25708.57">2241 2696 416,'0'0'536,"20"0"265,364-22 4300,-137 5-3735,-10 3-805,416-16 148,-541 22-365,-35 2-1250,-27 5-2860,-61 1 669</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26156.76">2348 2824 720,'19'0'1030,"71"0"370,547-25 3112,-356-18-4139,325-27 583,-525 69-1748,-68 2-4224,-25-1 3290</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26578.23">2718 2451 1008,'0'0'1673,"18"-2"-1310,690-47 5382,22 39-4377,-729 10-1552,0 1 1,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1-1,-1 1 1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,-1 2-1,1 9-3785</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27473.1">4433 2624 4194,'0'0'6229,"-9"-4"-5204,-27-14-246,118 14-288,718-11 280,-828-3-2399,-106-55 1613,92 49 345,41 23-20,17 7-633,-1 0 233,0 1 0,27 16-1,-15-8 156,-25-14-59,7 4-3,0 0 0,-1 0 0,0 0 1,13 12-1,-19-15-17,0 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 4 0,0-4 33,0-1-1,0 1 1,-1-1 0,1 1-1,-1-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1-1-1,0 0 1,-1 1 0,0-1-1,-2 1 1,-60 22 197,51-19-205,1 0-136,-9 3-607,8-6-4078</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28236.16">5671 2398 5811,'0'0'3641,"0"7"-3763,-16 183 1790,6-93-1311,5-48-213,4-49-116,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1-1 0,-5-24-188,2-1 0,0 1 0,1-1 0,2 0 0,1 0 0,1 0 0,1 0 1,7-31-1,-7 51 117,0 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,1-1 1,0 1-1,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 1,0 1-1,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,0 1 0,0 0 1,0 0-1,1 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 1,12 4-1,-19-3 24,1 0 1,0 0 0,0 0 0,0 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,-1 0 0,1 1 0,-1 2-1,1 1 8,0 0-1,-1 1 1,0-2 0,0 1-1,-1 0 1,0 0-1,0 0 1,0-1 0,-5 10-1,-1-5 32,0 0 0,-1-1 0,0 0 0,-1 0 1,0-1-1,0 0 0,0-1 0,-1 0 0,-1-1 0,-17 8 0,29-14-24,0 0-1,0 0 1,0 0 0,1-1-1,-1 1 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,17-15-230,-14 14 236,0 0-1,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-2 1 1,1-1-1,0 0 1,0 1-1,0 0 1,-1-1-1,2 3 1,4 5 95,-1 1 1,-1-1-1,1 1 0,-2 0 1,5 13-1,5 9 224,-3-7-264,-7-16 39,-1-1 0,2 0 1,-1 0-1,1 0 0,11 14 0,-14-20-350,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1-1,1 0 1,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,0 0-1,0-1 1,0 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,3-1 0,16-6-3317</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29260.48">6108 2565 2289,'0'0'4306,"-6"9"-3663,-1 1-391,0 1 1,1 0-1,1 0 1,0 0-1,0 0 1,1 1-1,0 0 1,1 0-1,1 0 1,-2 17-1,4-26-222,-1-1 0,1 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1-1,1-1 1,0 0 0,-1 1 0,1-1-1,0 0 1,0 0 0,0 1 0,0-1 0,1 0-1,-1 0 1,3 2 0,-1-2 47,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,1-1-1,-1 0 0,1 0 1,3 0-1,-4-1-30,1 1 1,-1-1-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,-1-1-1,1-5 0,0 5-93,-1 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,-1 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,-1 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,-6-2 1,-31-1-1256,39 5 1254,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0-1,1 0 1,2 1-55,-1-1-1,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 0 1,1 0-1,3-1 1,1 0-22,39 1 370,0-3-1,60-11 1,-105 16-198,0 0 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,-1 1 1,1 1-1,-1-1 65,1 7 50,1 0 1,-1 0 0,2 0-1,2 14 1,-3-22-143,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0-1 0,-1 1 0,1-1 0,0 0-1,3 1 1,-1-2 43,0 1 0,0-1-1,-1 1 1,1-1 0,0-1-1,-1 1 1,1 0 0,-1-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0 0,-1 0-1,5-5 1,1-4-20,-1 1-1,1-1 0,9-25 1,-17 40-75,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 0,0 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,4 5 0,-4-6 52,0 1-1,0-1 0,0 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,4 2-1,-2-2 75,0-1 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,6-4 0,31-12-57,-38 17-95,1 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,5 3 0,31 6 225,-32-10-103,0 0-1,0 0 1,0-1 0,0 0 0,0-1-1,0 0 1,0 0 0,0-1-1,12-6 1,-16 7-44,0-1 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,-1-1 1,2-6-1,-1 4-138,-1 0 1,1 0-1,-1 0 1,-1 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,-1 0-1,0 0 1,0 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1 0 1,-7-6-1,10 9-180,0 0 1,1 0-1,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-3 0 0,-8 0-2789</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1881 532 80,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.04">2207 90 4066,'0'0'10607,"-7"-9"-9918,-19-24-196,19 24 190,74 6-647,76-13 0,-77 7-414,77-1 1,-144 36-7810,-8-11 5193,-11-1-399</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="925.99">2448 59 3698,'0'0'6040,"0"-3"-5557,0 4-442,0 71 1712,-14 109 1,13-174-875,-1 4-3542,2-11 2537,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,13-7-4447</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1967.15">2739 214 1217,'0'0'7731,"2"-3"-6797,9-24 571,-57 29-1423,41 0-82,0 0-1,0 1 1,0 0-1,1-1 0,-1 1 1,1 1-1,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1 0 1,1 1-1,0-2 1,0 2-1,-2 5 0,2-1 24,-1 0 0,1 0 0,1 1-1,0-1 1,0 1 0,1-1 0,0 1-1,1 9 1,0-18-15,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,2 0 0,38-8 262,-33 4-238,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-2 1,10-10-1,-14 13-4,0 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,-1-1 0,0 0 0,1 0-1,-1-8 1,0 15-29,-1 1 0,0-1 0,1 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,4 0 0,0 1 22,1-1 0,0 0 1,-1 0-1,1-1 0,0 0 1,-1-1-1,1 1 0,-1-1 1,1-1-1,12-5 0,-16 6-29,1-1-1,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1-1 1,-1 0-1,0 1 0,0-1 1,0-1-1,-1 1 0,1-1 0,1-5 1,-1-1 83,-1-1 0,0 1-1,0-1 1,-1 0 0,-1-18 0,-2 47-125,1 0-1,-9 30 1,0 14 379,1-1 806,9-62-1064,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,1 0-1,-1 1 1,1-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,2-2 0,0 0-97,0 1 0,0 0 1,1-1-1,0 1 0,0 0 0,0 1 1,0-1-1,0 1 0,1 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0 0 1,0 0-1,0 1 0,0-1 0,1 1 0,-1 0 1,0 0-1,2 1 0,-2 0 0,1 0 1,-1 0-1,8 1 0,-11 0 9,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,-1-1 1,1 0-1,0 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 4 1,1-2-4,-1-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,-1 1 0,0-1-1,1 1 1,-1-1 0,-1 0 0,1 1-1,0-1 1,-1 0 0,0 0 0,1-1-1,-1 1 1,-4 4 0,-1-2 73,0-1 0,0 0 1,-1 0-1,1-1 0,-1 1 1,-1-2-1,1 1 0,0-1 0,0-1 1,0 0-1,0 0 0,0 0 1,-1-1-1,-9-1 0,15 0-129,0 1 0,0-1 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,1 0 0,-1-1 1,0 1-1,0-1 0,1 0 0,-2-3 0,17 5-6523,3-3 1243</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2154.05">3212 217 1505,'0'0'1360</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4167.54">3270 178 384,'0'0'7761,"0"-11"-3025,-9 220-3117,10-208-1614,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 0,2-1 1,2 0 27,1 0 0,-1 0 1,1-1-1,-1 0 0,0 0 1,0 0-1,1 0 0,5-5 1,-4 1-23,0 1 0,-1-1 0,0 0 0,0 0 1,-1-1-1,0 0 0,0 0 0,0 1 0,6-16 1,-7 10-22,-1 1 0,0 0 1,-1-1-1,0 1 0,-1 0 1,0-1-1,-1-12 0,0 23-83,0 42-777,-1-17 944,1-17-30,-1 1 0,1-1 0,0 1 0,1-1 0,0 1 0,2 8 0,-2-14-30,-1 0 0,1 0 0,0-2 0,0 2 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,3-2 0,2 0 8,1 0 1,-1 0-1,0-1 0,0 0 0,1 0 0,-1-1 0,-1 0 1,1 0-1,0-1 0,-1 1 0,0-1 0,0 0 1,0-1-1,0 0 0,-1 0 0,1-1 0,-2 1 0,1-1 1,0 0-1,-1 0 0,7-14 0,-4 6-153,1 1 0,-2-2-1,0 0 1,-1 0 0,0 0 0,-1 0 0,-1 0-1,-1-1 1,2-22 0,-4-36-467,-13 97-232,6 2 1031,0 1-1,2 0 1,1 0-1,1 0 1,1 1-1,3 49 1,0-71-175,-1-1 0,1 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,1-1 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 1,1-1-1,0 1 0,0-1 1,0-1-1,0 1 0,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,1 0 0,-1 0 1,7-2-1,-6 2-2,1-1 1,-1 1 0,0-1-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0 0,1-1-1,-1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,0-1 0,0 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0-8 1,-1 5-55,0 0 0,-1 2 0,0-2-1,-1 0 1,0 0 0,0 1 0,-2-9 0,3 16 7,0-1-1,-1 0 1,1 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,0-1 1,0 1 0,0 0-1,-2 0-14,1 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,1 1-1,-1-1 0,-2 5 1,0-1-19,1 1 1,-1 0 0,0 0 0,1 0 0,0 0-1,0 1 1,1-2 0,0 2 0,1 0 0,-1-1-1,1 1 1,0 0 0,1 0 0,0 0 0,0 8-1,3-15 19,0 0-1,-1 1 1,1-1-1,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0-1 1,-1 0-1,5-2 1,-2-1 31,0 0 1,0 0 0,0 0 0,-1-1 0,0 0-1,6-9 1,14-14-97,-24 27 70,9 43-11,-9-34 162,2 0 0,-1-1-1,1 1 1,0-1 0,0 0 0,1 1-1,0-1 1,7 10 0,-10-16-81,1 1 0,0-1 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 0,-1-1 0,1-1 0,7-7 19,-1 2 0,-1-2 0,1 0-1,8-18 1,-10 17-97,0 1 0,1-1 1,0 2-1,11-11 0,-15 17-2,0 0 1,0 1-1,0-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 1 0,1-1 1,-1 1-1,6-1 0,-9 1 31,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,1 0 0,15 37 41,-16-35 71,0 0 1,0-1 0,0 1 0,1 0 0,0-1-1,-1 1 1,1-1 0,1 1 0,-1-1 0,0 0-1,1 0 1,5 5 0,-2-6-32,0-1-1,1 0 1,-1 0 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 0-1,1 0 1,-1-1 0,7-2 0,-11 3-43,133-35 178,-79 16-2574,-67 20-4383</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5649.75">2020 908 3570,'0'0'8126,"0"-7"-7039,0 4-869,0 6-106,-45 872 2033,-5-544-1777,-22 219 622,61-438-807,-4 79-1004,16-193 631,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,3-1 0,7-10-1150,23-35-3446</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6368.82">2930 1119 1345,'0'0'6282,"0"-6"-5284,0-18 5,0 18 3151,-4 17-3908,-11 61 188,-9 96-1,5-25-86,-34 177 229,-76 475-61,122-726-281,3 101 0,4-118-262,12-61-2320,9-17-936,10-15-1902</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7053.86">3699 898 5202,'0'0'3303,"0"22"-2524,0 379 2633,0-361-3225,0 127 584,-23 175 0,-30 24 51,-18 151-51,66-417-696,5-100-103,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0-1 0,1 1 0,19-13-2142,2-19-1893</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7602.57">4592 748 4130,'0'0'5138,"0"22"-4305,10 346 2328,12 465-538,-26-756-2481,-3 1 0,-27 121 0,29-180-1792,5-18 1554,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,-7-11-4570</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8788.79">1934 888 1745,'0'0'5130,"14"0"-4212,222-12 1563,435-28-214,-78 8-2154,67 5 44,-359 21-98,52-24 213,-342 27 74</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10126.89">1957 1363 4002,'0'0'1851,"17"0"-682,351-17 2859,-156 13-2979,509-39-585,-716 43-464,132-20 31,182-2-1,-199 23-6,285-13 6,-299 5-3,-62 5-18,0-2-1,-1-1 1,46-13-1,-84 17 0,91-27 350,-58 17-529,-30 8-148,-10 3-210,-89 20-4066,38-9-495</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11086.09">1956 1869 1169,'0'0'1360,"17"0"-159,356-46 3976,-116 8-3727,465-24-766,-657 57-675,350-21 66,118 5-158,-406 13 388,-58 3-5471</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12223.54">1948 2334 1473,'0'0'7795,"-8"0"-6693,6 0-1100,7 0 188,286-21 1978,-13 0-1697,390-24-288,-653 44-182,209-15 28,226 14 0,-297 8-3,202-19-1,-144-11 23,-211 24-45,27-3-1768,-1-4-6173,-25 5 5489</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13473.53">1859 2993 144,'0'0'5664,"11"-1"-4477,30-4 304,44-12-1,42-6-31,612-4 935,-389 23-2310,-84-15-6,-10 0 79,446-24 692,-645 39-751,34 5 219,-72 1-150,1-2 0,0 0 1,-1-1-1,1 0 0,24-7 1,-28-1-739,-16 8 335,1 1 1,-1-1 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1-1 1,-12-9-6253</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14190.64">4682 2159 256,'0'0'3055,"-5"16"-1961,-65 298 3945,16-65-2197,51-229-2601,0-1 0,1 32 0,1-32 187,0-2-1,-8 37 1,9-34-1402,0-29-2339</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15508.14">2904 947 1409,'0'0'3495,"-22"-18"-438,22-18 2127,11 22-4966,-11 14-223,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,5 40 139,-2 1-1,-4 80 1,-1-41 180,2 73-1720,10-164-4037,2 2 1284</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16916.03">2287 1051 0,'0'0'4453,"-6"20"-3773,-2 3-428,-1 8 167,0 1 1,-4 31-1,-121 885 3457,41-387-2416,92-548-1530,-1 3 356,1-26-4002,3-18-30,9-13-811</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17395.09">2391 1111 352,'0'0'4565,"0"-5"-4319,0 9 49,-3 42 1037,-12 73-1,-3 5-621,6 95 83,-8 94 172,-69 254-103,58-395-742,26-147-77,5-24-608,15-58-2696,6 0 537,1-16-643</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17815.45">2569 1022 1024,'0'0'3792,"0"5"-3635,-4 62 833,-3 1-1,-20 86 1,2-12-120,-13 110 292,-75 597 85,112-819-1439,1-29-446,2-4-589,28-57-2988,-12 7 755</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18197.75">2684 1051 688,'0'0'1212,"-2"16"140,-25 158 1210,-19 153 228,23-31-1585,-52 376 255,49-508-2418,27-171-4263,10-21 931</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18604.3">2806 1077 880,'0'0'4789,"-1"0"-4207,-4 8-491,1-1 1,0 1-1,0 0 0,1 0 0,0 0 1,0 0-1,1 0 0,-2 10 1,-4 11 249,-22 81 1029,-25 172 0,9 120 564,36-295-1790,8-27-115,2-53-4996,0-40 1163</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19477.02">2296 1325 3650,'0'0'9471,"-5"-9"-8263,4 7-1185,-2-4 109,0 1 0,0 0 0,0-1 0,-1 1-1,0 0 1,0 1 0,0-1 0,-1 1 0,1 0 0,-1 1 0,0-1 0,0 0-1,-1 1 1,-7-4 0,-16-2-109,0 1 0,0 1-1,-1 2 1,-42-3 0,-127 5-135,89 4 91,96-1 13,-156-8-28,144 5 26,0 0 1,1-2-1,-1-1 0,-35-13 0,59 18-44,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0 0 1,0-1-1,0 0 0,0-1 0,0 2-151,1 1-1,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,14-9-4110</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21849.32">202 1127 976,'0'0'7358,"-2"-10"-6176,1 4-1206,-9-33 1787,9 38-1666,0-1 1,0 0 0,1 1-1,-1-1 1,0 1 0,0-1 0,-1 1-1,0 0 1,1-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,1 1 1,-1 0 0,-2-1 0,-1 2-104,1-1 1,0 0 0,0 1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,1 1 1,-6 4 0,2-1-5,1 0 1,0 1 0,1 0 0,0 0 0,0 1-1,-7 14 1,4-5 26,2 0 0,0 0 0,0 1 0,2 0-1,0 0 1,-2 27 0,5-33-4,1 1 1,0 0-1,1-1 1,0 0-1,1 0 0,7 24 1,-8-32-9,0-1 1,1 1 0,-1-1 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 0-1,0 1 1,1-2 0,-1 1-1,0 0 1,1-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1-1,8 1 1,2 0 10,-1-1 0,1 0 0,-1-1 1,1 0-1,-1-1 0,2 0 0,-2 0 0,0-2 0,0 0 0,19-10 1,-22 9-26,0-1 0,-1 1 1,0-2-1,-1 1 0,1-1 1,-1 0-1,-1-1 1,1 0-1,-1 0 0,0 1 1,-1-2-1,0 0 0,-1 0 1,4-9-1,-6 15 13,1-4 5,-1 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,0-13-1,-2 31-14,-1 2-28,1 2 0,0 0 0,1 0 0,1 0 0,1 0 0,0-2 0,1 2 0,0-1-1,7 15 1,-11-29 46,1 1-1,-1-1 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,-1 0 1,0 0-1,1-1 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 1,2-3-1,0 0 21,0-1-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1-1 0,0 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1-8 1,-1 5-74,0 1-1,-1-1 0,0 1 1,-1 0-1,1-1 1,-1 1-1,-1-1 0,1 1 1,-1 0-1,0-1 1,0 1-1,-1 0 1,-4-8-1,5 11-37,-1 0-1,0-1 1,0 1 0,0 0 0,0 1 0,0-1-1,0 1 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 1 0,0 0-1,0-1 1,0 1 0,0 1 0,-1-1-1,1 1 1,-8 0 0,10 0 60,0 1 1,0 0-1,-1 0 1,1-1-1,0 2 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1-1 1,1 2-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,1 3 1,-2-2 26,1 0 1,-1 0 0,1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,-1 1-1,2-2 1,-1 1 0,0 0 0,0 0 0,3 2-1,2-2 15,-1-1-1,0 1 0,1-1 0,-1 0 0,0-1 0,1 1 0,-1-2 0,1 1 0,-1 0 0,1-1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 0,0 0 0,-1-2 0,1 1 0,-1-1 0,9-8 0,-2 2-31,0-1 1,1-1-1,-2 0 0,-1 0 1,0-1-1,0 1 0,-2-2 1,9-16-1,-12 15 9,-1 0 0,0 2 0,-1-3 0,-1 1 0,0 0 0,-1-1 1,0 1-1,-4-24 0,3-2-90,-3 15 47,-2 40-161,-5 46 220,-4 237 1497,15-291-1486,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1-1 0,1 1 0,1-1 0,-1 0 0,5 6 0,-7-10-9,0 0-1,0-1 1,0 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,2-1 1,1-3 11,0 0-1,0 1 1,-1-2 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 0-1,0 1 1,0-1 0,-1 0-1,1-8 1,9-79-21,-9 75-14,-2-36-205,0 39-245,0 38 38,-1 5 394,1-12 40,-1-1-1,2 1 1,2 17 0,-2-30-8,-1 1 1,1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,4 3 0,-5-4 5,-1 0 1,0 0 0,1-1-1,-1 1 1,1 0 0,-1-1-1,0 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,3-2-1,-2 0-1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,1-1 1,0-1 0,1-6-9,0 0 0,0-1 1,-1 1-1,0 0 0,0-21 1,-2-56-767,-2 127 611,1-29 237,0 0-1,0 0 1,1-1-1,1 1 1,0 0 0,4 17-1,-4-25-119,0 0 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 0 1,-1 0 0,2 0 0,-2 0 0,1-1 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 1 0,0-1 0,0-1 0,0 1-1,0 0 1,0-1 0,1 0 0,-1 0 0,4 0 0,41-1-4743,-25-5 1237</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22203.88">1068 1155 3586,'0'0'6525,"-3"6"-6327,-3 9 240,1 1 0,0 1 0,1 0 1,1 0-1,0 0 0,2-1 0,0 35 0,1-50-134,2-28 782,7 6-1021,1 1-1,0 0 1,20-29-1,-20 34-186,-10 14 110,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-1-1 0,0 1-1,1-1 1,-1 1 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1 0,1-1-1,-1 0 1,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,13 45-120,-11-38 234,32 103 479,-34-111-573,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,18-22 223,1-9-146,-12 18-136,1 1 1,1-1-1,1 1 0,-1 0 1,18-17-1,-27 30 38,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,15 43 167,-11-30-159,17 21-1880,-21-34 1682,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,0-1-1,-1 0 1,1 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1 0,1-1 0,7-12-1916</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22552.39">1430 1198 208,'0'0'6558,"0"-10"-5499,0-20-193,0 60 1744,0 58-705,26-112-1222,-14 7-540,-7 8-173,1 1 0,0-1-1,0 2 1,13-13 0,-18 19 39,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,2 2-1,4 6-137,-3-4 315,0 0 1,1-1 0,-1 1-1,1-1 1,0 0-1,5 5 1,-7-8-525,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,1 0 0,-1 1-1,3-1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24544.75">1956 2580 4610,'0'0'2713,"21"-5"-2056,-2 0-515,22-6 557,80-13-1,283 12 113,-212 12-576,591-39-539,-614 29-409,-78 5-4324</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25281.36">2194 2533 3794,'0'0'1435,"24"-3"-608,163-17 1011,333-20 218,3 36-1855,-335 5-187,-10 9 300,-54-1-1455,-41-9-2944</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25708.57">2247 2667 416,'0'0'536,"20"0"265,365-21 4300,-137 4-3735,-10 3-805,416-16 148,-541 22-365,-36 3-1250,-27 4-2860,-61 1 669</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26156.76">2354 2794 720,'20'0'1030,"70"0"370,549-25 3112,-358-17-4139,327-27 583,-527 68-1748,-68 2-4224,-25-1 3290</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26578.23">2726 2425 1008,'0'0'1673,"18"-2"-1310,692-46 5382,22 38-4377,-731 10-1552,0 1 1,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1-1,-1 1 1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,-1 2-1,1 8-3785</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27473.1">4445 2596 4194,'0'0'6229,"-9"-4"-5204,-27-14-246,118 15-288,721-12 280,-832-3-2399,-105-54 1613,92 48 345,41 23-20,17 7-633,-1 0 233,0 1 0,27 15-1,-15-7 156,-25-14-59,7 4-3,0 0 0,-1 0 0,0 0 1,13 12-1,-19-15-17,0 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,0 1 0,1-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1-1,-1 0 1,0 1 0,0 0 0,0 0 0,0 0 0,-1 4 0,0-4 33,0-1-1,0 1 1,-2-1 0,2 1-1,-1-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1-1-1,0 0 1,-1 1 0,0-1-1,-2 1 1,-60 22 197,51-19-205,1 0-136,-9 2-607,8-5-4078</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28236.16">5687 2373 5811,'0'0'3641,"0"7"-3763,-16 181 1790,6-92-1311,5-48-213,4-48-116,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1-1 0,-5-24-188,2 0 0,-1 0 0,2-1 0,2 1 0,1-1 0,1 0 0,1 0 1,8-30-1,-8 50 117,0 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,1 0 1,0 0-1,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 1,0 1-1,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,0 1 0,0 0 1,0 0-1,1 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 1,12 4-1,-19-3 24,1 0 1,0 0 0,0 0 0,0 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,-1 0 0,1 1 0,-1 2-1,1 1 8,0 0-1,-1 1 1,0-3 0,0 2-1,-1 0 1,0 0-1,0 0 1,0-1 0,-5 10-1,-1-5 32,0 0 0,-1-1 0,0 0 0,-1 0 1,0-2-1,0 1 0,0-1 0,-1 0 0,-1-1 0,-17 8 0,29-14-24,0 0-1,0 0 1,0 0 0,1-1-1,-1 1 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,17-15-230,-14 14 236,0 0-1,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-2 1 1,1-1-1,0 0 1,0 1-1,0 0 1,-1-1-1,2 3 1,4 5 95,-1 1 1,-1-1-1,1 1 0,-2 0 1,5 12-1,5 10 224,-3-7-264,-7-16 39,-1-1 0,2-1 1,-1 1-1,1 0 0,11 14 0,-14-20-350,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1-1,1 0 1,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,0 0-1,0-1 1,0 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,3-1 0,16-6-3317</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29260.48">6125 2538 2289,'0'0'4306,"-6"9"-3663,-1 1-391,0 1 1,1-1-1,1 1 1,0 0-1,0 0 1,1 1-1,0 0 1,1 0-1,1 0 1,-2 16-1,4-25-222,-1-1 0,1 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 1-1,1-1 1,0 0 0,-1 1 0,1-1-1,0 0 1,0 0 0,0 1 0,0-1 0,1 0-1,-1 0 1,3 2 0,-1-2 47,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,1-1-1,-1 0 0,1 0 1,3 0-1,-4-1-30,1 1 1,-1-1-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,-1-1-1,1-5 0,0 6-93,-1 0-1,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,-1 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,-1 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,-6-2 1,-31 0-1256,39 4 1254,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0-1,1 0 1,2 1-55,-1-1-1,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 0 1,1 0-1,3-1 1,1 0-22,39 1 370,0-3-1,60-11 1,-105 16-198,0 0 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,-1 1 1,1 1-1,-1-1 65,1 7 50,1 0 1,-1 0 0,2 0-1,2 13 1,-2-21-143,-2 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0-1 0,-1 1 0,1-1 0,0 0-1,3 1 1,-1-2 43,0 1 0,0-1-1,-1 1 1,1-1 0,0-1-1,-1 1 1,1 0 0,-1-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 0 0,-1 0-1,5-5 1,1-4-20,-1 2-1,1-2 0,9-25 1,-17 40-75,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 0,0 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,4 5 0,-4-7 52,0 2-1,0-1 0,0 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,4 2-1,-2-2 75,0-1 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,6-4 0,31-11-57,-38 16-95,1 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,5 3 0,32 6 225,-33-10-103,0 0-1,0 0 1,0-1 0,0 0 0,0-1-1,0 0 1,0 0 0,0-1-1,12-5 1,-16 6-44,0-1 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,-1-1 1,2-6-1,-1 4-138,-1 1 1,1-1-1,-1 0 1,-1 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,-1 0-1,0 0 1,0 1-1,-1-1 1,0 1-1,0 0 1,0 1-1,-1-1 1,0 0-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1 0 1,-7-6-1,10 9-180,0 0 1,1 0-1,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-3 0 0,-8 0-2789</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4809,22 +4809,22 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">659 2 6099,'0'0'2558,"-1"1"-2530,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1 2-1,-7 176 1162,-38 226-1,32-310-1019,-32 287 200,-49 308-95,-6-85 274,12-63-40,76-489-479,9-42-56,1 0-1,0 0 0,0 1 0,0 15 1,11-40-3033,16-29-219,12-22-2110</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1469.04">528 54 1201,'0'0'6829,"-2"-1"-6463,41-4-366,272-10 791,167-4-680,-360 19-74,754 6-188,-1 34-1744,-358 6 1527,463 28 402,-686-73 1727,-68-1 664,-216 29-2404,1 57 408,-4 0 0,-3 1 0,-21 151-1,-72 251-43,17-112-14,68-329-326,-61 398 260,38 4-49,31-274 760,-38 291 0,31-425-763,3 1 0,1 0 0,2 0 0,8 68 0,-5-99-194,0 1 0,1-1 0,1 0 0,0 0 0,0 0 0,2 0 0,-1-1 0,1 1-1,1-2 1,15 21 0,-21-30-568,-14-10-6049,-13-13-2990</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2835.18">170 3058 704,'0'0'4781,"22"-9"-3516,169-65 3489,-152 64-4048,0 1 1,1 2 0,44-3-1,124 4-222,-121 4-155,550-3 677,113-4-643,1001 23-281,-1311 19-98,111 2 78,-511-35-41,50 1 25,0-3 0,169-28 1,-257 30-44,8-2 13,-1 1 0,1-2 0,0 1 0,-1-2 0,1 1 0,-1-1 0,0-1 0,0 1-1,12-10 1,-20 13-57,-1 0-1,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1 0-1,-1-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,0-1 0,1 1 1,-3 0-1,-39-14-4976</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3811.04">1665 0 3185,'0'0'4808,"1"6"-4600,6 77 332,-2 1 0,-10 115-1,-36 120 700,15-158-898,-87 717 857,77-586-777,15 55-53,16-192-74,-4-62-107,-1 22-836,15-131-7378,0-12 3251</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4447.25">2700 31 2609,'0'0'4373,"0"5"-3896,-4 54 49,-2-1 0,-20 86 0,-1 5 17,-50 494 1142,-41 269-947,91-759-45,-51 371 521,76-383-1422,2-141 160,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 1 0,12-16-2822,11-20-2127</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5067.46">3720 29 2081,'0'0'3599,"-2"14"-3316,-33 216 2590,-7 46-888,7 118-255,-50 331-392,52-559-1092,-98 597 661,130-677-1252,9-91-4161,12-14 1361,0-10-1500</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5684.26">4653 26 1985,'0'0'4981,"-1"10"-3367,-30 148-1162,9-56 11,-114 894 2645,26-253-787,94-654-1993,-2 51 325,-1 156 0,16-229-537,-15 84 191,18-151-451,0-20-3711,0-13-1443</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6651.03">374 642 448,'0'0'3861,"28"0"-2962,342 0 2428,324-12-1254,307-1-1193,20 38-811,-670-3-59,698 24 12,-961-47-68,0 5 0,89 15 0,-159-17 23,-14-2-43,-1 0-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,5 3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7562.05">195 1194 2193,'0'0'5488,"26"0"-4442,450 14 3121,642 23-2190,-622-23-1932,957 81-290,-1270-75-71,261 17-510,-152-28 52,115 1 542,-405-10-101,-6-6-4312,-12-2-1203</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8349.81">586 1768 4274,'25'0'622,"777"-20"5959,616-2-5532,-448 96-1023,-794-55-26,416 23 16,-493-41 13,-9 1 9,138-16-1,-254 8-4703,-19 3-539</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9192.13">0 2199 5715,'0'0'61,"26"3"336,321 16 3202,518-45-729,-262 2-2314,1266 83-489,-1454-6-69,155 11-861,-345-56 653,257 24 458,-394-23-867,105-4 0,-201-13-7796</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10182.64">2789 1301 2113,'0'0'3754,"-15"12"-3117,-116 103 1159,-72 106 1036,159-170-2452,42-48-368,1-2-11,1 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 0-1,-1 0 1,1 0-540,5-2-3418,13-7 1615,6-5-488</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10663.04">2860 1456 1121,'0'0'3833,"14"-17"-298,-30 28-3423,0 1 0,1 1-1,-27 29 1,-14 11 412,20-22 269,-63 68-1,106-98-4634,29-1 1294,-7-12-250</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11069.95">3139 1330 1377,'0'0'5258,"-21"16"-3588,-53 64-465,36-41-227,-62 84 1,100-122-987,-4 4-34,1 0-1,0-1 0,0 2 0,0-1 0,1 0 1,0 0-1,-3 10 0,17-15-3575,10-5 1447,2-12-1236</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11371.99">3326 1357 368,'0'0'4448,"0"5"-3699,-4 4-425,1 1 1,-1-1-1,0 1 0,-1-1 0,0-1 0,-1 1 0,0-1 1,0 0-1,-1 0 0,-7 7 0,-81 73 1625,80-75-1741,2-3-247,0 0-1,1 1 0,1 1 1,-1 0-1,-14 22 0,26-34-73,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 310,16-3-3524</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11706.02">3472 1350 2609,'0'0'4151,"-10"16"-3444,-92 144 1665,77-121-1427,-56 64-1,69-82-410,7-12-1697,3-6-3485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">662 2 6099,'0'0'2558,"-1"1"-2530,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1 2-1,-7 175 1162,-38 224-1,32-308-1019,-32 286 200,-50 305-95,-5-84 274,11-63-40,77-485-479,9-42-56,1 0-1,0 0 0,0 1 0,0 15 1,11-40-3033,16-29-219,12-22-2110</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1469.04">531 54 1201,'0'0'6829,"-3"-1"-6463,43-4-366,272-10 791,168-4-680,-361 19-74,757 6-188,-1 34-1744,-359 5 1527,464 29 402,-688-73 1727,-69-1 664,-217 29-2404,1 56 408,-4 0 0,-3 2 0,-21 149-1,-73 250-43,18-112-14,68-326-326,-61 395 260,37 4-49,32-272 760,-38 289 0,31-422-763,3 0 0,1 1 0,2 0 0,8 67 0,-5-98-194,0 1 0,1-1 0,1 0 0,0 0 0,0 0 0,2-1 0,-1 0 0,1 1-1,1-2 1,16 21 0,-22-30-568,-15-10-6049,-12-13-2990</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2835.18">171 3038 704,'0'0'4781,"22"-9"-3516,170-65 3489,-153 64-4048,0 1 1,1 2 0,45-3-1,124 4-222,-122 4-155,553-3 677,114-3-643,1005 21-281,-1317 20-98,112 2 78,-514-35-41,50 1 25,1-3 0,169-28 1,-258 30-44,8-2 13,-1 1 0,1-2 0,0 1 0,-1-2 0,1 1 0,-1-1 0,0-1 0,0 1-1,13-10 1,-21 13-57,-1 0-1,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1 0 0,0-1 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1 0-1,-1-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,0-1 0,1 1 1,-3 0-1,-40-14-4976</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3811.04">1673 0 3185,'0'0'4808,"1"6"-4600,6 76 332,-2 2 0,-10 114-1,-36 118 700,15-156-898,-88 712 857,78-582-777,15 55-53,16-191-74,-4-61-107,-1 21-836,15-130-7378,0-12 3251</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4447.25">2713 31 2609,'0'0'4373,"0"5"-3896,-4 53 49,-2 0 0,-20 85 0,-1 5 17,-51 491 1142,-40 267-947,90-754-45,-50 368 521,76-380-1422,2-140 160,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 1 0,12-16-2822,11-20-2127</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5067.46">3738 29 2081,'0'0'3599,"-2"14"-3316,-34 214 2590,-6 46-888,7 118-255,-50 328-392,52-555-1092,-99 593 661,131-673-1252,9-90-4161,12-14 1361,0-10-1500</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5684.26">4675 26 1985,'0'0'4981,"-1"10"-3367,-30 147-1162,9-56 11,-115 888 2645,27-251-787,94-649-1993,-2 50 325,-2 155 0,17-228-537,-15 84 191,18-150-451,0-19-3711,0-14-1443</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6651.03">376 638 448,'0'0'3861,"28"0"-2962,344 0 2428,325-12-1254,309-1-1193,20 38-811,-674-3-59,702 23 12,-965-46-68,-1 5 0,90 15 0,-160-17 23,-14-2-43,-1 0-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,5 3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7562.05">196 1186 2193,'0'0'5488,"26"0"-4442,452 14 3121,646 23-2190,-626-23-1932,962 80-290,-1276-74-71,262 17-510,-153-28 52,116 0 542,-407-9-101,-6-6-4312,-12-1-1203</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8349.81">589 1756 4274,'25'0'622,"781"-20"5959,618-2-5532,-449 96-1023,-798-55-26,418 23 16,-496-41 13,-8 1 9,138-16-1,-255 8-4703,-20 3-539</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9192.13">0 2184 5715,'0'0'61,"26"3"336,323 16 3202,520-45-729,-263 2-2314,1272 83-489,-1461-6-69,155 10-861,-346-55 653,259 24 458,-397-23-867,106-4 0,-202-13-7796</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10182.64">2802 1292 2113,'0'0'3754,"-15"12"-3117,-116 102 1159,-73 106 1036,159-169-2452,43-48-368,1-2-11,1 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 0-1,-1 0 1,1 0-540,5-2-3418,13-7 1615,6-5-488</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10663.04">2874 1446 1121,'0'0'3833,"14"-17"-298,-30 28-3423,0 1 0,0 1-1,-26 29 1,-14 11 412,20-23 269,-64 69-1,107-98-4634,30-1 1294,-8-12-250</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11069.95">3154 1321 1377,'0'0'5258,"-21"16"-3588,-54 63-465,37-40-227,-62 83 1,100-121-987,-4 4-34,1 0-1,0-1 0,0 2 0,0-1 0,1 0 1,0 0-1,-3 10 0,17-15-3575,10-5 1447,2-12-1236</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11371.99">3342 1348 368,'0'0'4448,"0"5"-3699,-4 4-425,1 1 1,-1-1-1,0 1 0,-1-1 0,0-1 0,-1 0 0,0 0 1,0 0-1,-1 0 0,-8 7 0,-80 73 1625,80-75-1741,2-4-247,0 1-1,1 1 0,1 1 1,-1 0-1,-14 22 0,26-34-73,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 310,16-3-3524</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11706.02">3488 1341 2609,'0'0'4151,"-10"16"-3444,-92 143 1665,77-120-1427,-57 63-1,70-81-410,7-12-1697,3-6-3485</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4882,13 +4882,13 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">427 538 4882,'0'0'8884,"-2"-18"-7688,-2-3-784,2 9 150,0 1 1,0-1-1,1-22 1,-1 34-517,2 0-49,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,-3 59-154,-22 108 0,6-53 159,-150 1155 62,80-682-18,87-576-51,2-6-7,0 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,0-1 1,1 1-1,-2 0 0,-2 5 1,4-10-445,0-21-2211,5-31-805,13-21-1489</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="974.87">468 592 864,'0'0'5950,"0"-5"-5414,0-10-429,0 3 4655,2 11-4758,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,3 1-1,3-2 3,632-107 133,-570 101-136,106-14 7,405-68 82,-580 90-319,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1 0-23,-1-1 0,0 1 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 0 1,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1 0-1,1-1 1,-1 2 0,-5 6-1311</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808.88">1980 351 976,'0'0'7004,"0"-5"-6188,0-18-133,0 17 1121,0 8-1695,-1 12-102,-1 1 1,0-1-1,-2 0 0,1 0 1,-2 0-1,0 0 0,-7 13 1,-14 43 133,4 21 378,-20 179-1,17 99 126,11-120-335,2-118 315,-5-1-1,-48 176 0,62-298-578,0 2 33,1 0-1,0 0 1,0 0-1,0 12 1,1-15-72,-1 0 0,0-1 1,0 1-1,0-1 0,-5 9 1,-3 9 27,10-23-5,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-2 0 0,-38 0 382,23-1-442,12 1 30,-59-2-33,1 3 0,0 3 0,0 3 0,-91 21 0,-41 26-94,-414 138-152,601-188 278,-326 118 47,310-120-222,25-2 110,-1 0 1,1-1-1,0 1 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0 0 0,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,1-1-1,21-39-5197,-17 35 4766,27-46-4595</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2789.91">468 241 320,'0'0'2897,"-5"1"-2800,4-1-121,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,0 0 1,-1 0-1,0 1 1,-2 29-1288,3-25 1088,0-5-639</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3507.93">468 228 192,'-7'18'76,"3"-9"-7,0 0 0,1 0 0,1 0 0,-1 0-1,2 0 1,-1 1 0,0 13 0,2-23-76,1 1-1,-1-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 0-1,0 1 1,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 7,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 1 1,1 2 1912,1-10 3553,1-5-906,-3 5-6533,1 4 1965,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0-1,3-2 1,44-22-43,-35 18 43,64-28 58,1 3 1,2 4-1,0 3 0,2 3 1,1 5-1,142-13 0,152-13 62,-343 39-7,-14 2 26,0 0 1,-1-2-1,0 0 1,0-2-1,0 0 0,32-14 1,-51 19 911</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3836.92">1743 6 624,'0'0'4688,"-2"9"-4603,-32 106 1253,15-57-809,2 1 0,3 1 0,2 0 0,-5 100 0,23-208-3629,1 14-1179</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4773.68">292 977 800,'0'0'2065</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">429 532 4882,'0'0'8884,"-2"-18"-7688,-2-3-784,2 9 150,0 1 1,0 0-1,1-23 1,-1 34-517,2 0-49,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,-3 58-154,-22 107 0,6-52 159,-151 1141 62,81-674-18,87-569-51,2-6-7,0 0-1,-1 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,0-1 1,0 1-1,-1 0 0,-2 5 1,4-10-445,0-21-2211,5-30-805,14-21-1489</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="974.87">471 585 864,'0'0'5950,"0"-5"-5414,0-10-429,0 3 4655,2 11-4758,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,3 1-1,3-1 3,635-107 133,-572 100-136,106-14 7,407-67 82,-583 89-319,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1 0-23,-1-1 0,0 1 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 0 1,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1 0-1,1-1 1,-1 2 0,-5 6-1311</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808.88">1991 347 976,'0'0'7004,"0"-5"-6188,0-18-133,0 17 1121,0 8-1695,-1 12-102,-1 1 1,0-1-1,-2 0 0,1-1 1,-2 1-1,0 0 0,-7 13 1,-14 42 133,3 21 378,-19 177-1,17 97 126,11-118-335,2-116 315,-5-2-1,-49 175 0,63-295-578,0 1 33,1 1-1,0 0 1,0 0-1,0 12 1,1-15-72,-1 0 0,0-1 1,0 0-1,0 0 0,-5 9 1,-3 9 27,10-23-5,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-2 0 0,-38 0 382,23-1-442,12 1 30,-60-2-33,2 3 0,0 3 0,-1 3 0,-91 20 0,-41 27-94,-416 135-152,604-185 278,-328 117 47,312-119-222,25-2 110,-1 0 1,1-1-1,0 1 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0 0 0,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,1-1-1,21-39-5197,-17 36 4766,27-47-4595</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2789.91">471 238 320,'0'0'2897,"-5"1"-2800,4-1-121,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 1-1,-1-1 0,1 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,0 0 1,-1 0-1,0 1 1,-2 29-1288,3-25 1088,0-5-639</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3507.93">471 225 192,'-7'18'76,"3"-9"-7,-1 0 0,2 0 0,1 0 0,-1 0-1,2-1 1,-1 2 0,0 13 0,2-23-76,1 1-1,-1-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 0-1,0 1 1,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 7,0 0-1,-1 1 1,1-1-1,1 0 1,-1 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 1 1,1 2 1912,1-10 3553,1-5-906,-3 5-6533,1 4 1965,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0-1,3-2 1,44-21-43,-35 17 43,65-28 58,0 3 1,2 5-1,1 2 0,1 3 1,2 6-1,142-14 0,153-13 62,-345 39-7,-14 2 26,1 1 1,-2-3-1,0 0 1,0-2-1,0 0 0,32-14 1,-51 19 911</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3836.92">1753 6 624,'0'0'4688,"-2"9"-4603,-33 104 1253,16-55-809,2 0 0,3 1 0,2 1 0,-5 98 0,23-206-3629,1 15-1179</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4773.68">294 965 800,'0'0'2065</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4946,29 +4946,29 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">117 176 3185,'0'0'6897,"0"-5"-6033,0-25 3026,-8 44-3837,-36 175 250,25-114-143,-18 131-1,29-90-98,8-115 257,0-5-227,0-22-633,-1 5-274,1 0 0,1 0 0,1 0 0,1 0 0,0 0 0,10-28 0,55-185-8300,-62 207 8505</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="203.39">104 189 352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="846.42">104 189 352,'0'5'159,"3"-12"1850,6-16 4168,-3 21-3897,3 15-1793,3 16-131,2 0-1,1-1 1,1 0-1,1-2 1,2 0-1,23 26 1,-23-28-295,-1 0 1,19 35-1,-36-59-49,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 0,19-22 123,-18 21-129,185-217-522,-113 137 586,-74 81-68,0 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 1-1,4 21-13,-3 39-46,-1-51 87,-3 35 50,-1 1 0,-13 54-1,8-55-36,2-1-1,-1 57 0,6-59-19,1-31-17,-1 0 0,2 1 1,0-1-1,0 1 0,1-1 1,0 0-1,1 0 0,0 1 0,5 12 1,-6-22-3,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,5-3-1,0 1 11,-1 0 0,0-1-1,1 0 1,-1-1-1,0 1 1,0-1-1,-1 0 1,11-10-1,8-13-50,-1-2 0,-1 0 0,-2-2 0,-1 0 1,-1-1-1,-2-1 0,-1 0 0,17-60 0,-30 68 110,-2 24 176,0 5-398,-1 14 141,-2-1-1,0 1 0,-1-1 0,-9 23 0,-8 42 222,19-58-156,0-1 0,3 25 0,0-13 70,-1-34-129,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,35-4-406,-27 1-28,-1 0 1,0 0 0,0-1-1,0 0 1,-1-1 0,1 0-1,-1 0 1,8-10 0,31-28-3921</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1044.52">1218 158 5042,'0'0'9557,"0"-23"-9717,6 23-1329,1 4-1424,7 19 47,6 0-3233</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1351.53">1218 158 4402,'104'134'2294,"-97"-117"-1207,-14-10 70,-24-9 858,18 0-1389,13 2-625,-8-1 113,0 0 0,0 1 0,0 0-1,0 1 1,0 0 0,0 0-1,0 0 1,1 1 0,-1 0 0,1 1-1,-1 0 1,1 0 0,0 0-1,0 1 1,0 0 0,-6 5 0,2 0-44,2 1 0,-1 0 0,1 0 1,0 1-1,1 0 0,1 0 1,-1 1-1,2 0 0,0 0 0,0 1 1,1-1-1,1 1 0,0 0 1,1 1-1,0-1 0,1 1 1,1-1-1,0 1 0,1 0 0,0-1 1,1 1-1,3 17 0,-3-27-61,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,0 1-1,0-1 0,4 3 0,-1-1-24,0-1-1,0 0 1,1 0-1,-1-1 1,1 0-1,-1 0 1,1 0-1,9 1 1,0-2-276,0 0 1,0-1 0,0-1-1,-1 0 1,1-1 0,0 0 0,16-6-1,-19 3-486,0 1 1,-1-2-1,0 0 0,0 0 0,-1-1 0,0-1 0,0 0 0,0 0 1,-1-1-1,15-17 0,-1-13-3089</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1915.42">1476 347 272,'0'0'13350,"1"-4"-13046,4 1-119,4 12 45,13 31 275,-14-24-360,0 1 0,-2 0 0,8 29 0,-11-24-43,-1 0 1,-1 39 0,-2-54-83,1 1 0,-1 0 0,-1-1 0,1 1 0,-1 0 0,-1-1 0,1 0 0,-1 0 0,0 1 0,-9 12 0,8-14-75,-4 3 546,5-23-188,4 6-383,1 0-1,0 1 1,0-1 0,0 1-1,1-1 1,0 1 0,1 0 0,-1 0-1,1 0 1,1 1 0,-1-1-1,1 1 1,0 0 0,1 0-1,0 1 1,-1 0 0,12-8 0,13-9-426,0 1 1,49-24 0,110-44 401,-233 192 1984,37-86-1794,0 0 0,2 1-1,0-1 1,1 1 0,0 0-1,2 0 1,0 1 0,1 20-1,1-38-86,0 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,2 0 0,2-1 17,-1 1-1,1-1 1,-1 1 0,1-1 0,-1-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 0 0,0-1 0,5-3 0,-2 0 27,0-1-1,0-1 1,-1 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,-1-1 1,0 0 0,-1 0-1,0 0 1,0 0 0,2-13-1,-2 1-128,0 0 0,-2 0-1,0 0 1,-5-41 0,4 60 90,-1 0 1,1 0 0,-1-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1 0,-4-1 0,-3 0-747,0 1 0,0-1 0,1 1 0,-17 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2388.62">2305 330 5747,'0'0'9580,"-9"-12"-8705,-32-38-309,37 47-547,0 0 0,0 1 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 1 1,-1 0-1,0-1 0,0 2 0,1-1 1,-1 0-1,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 1,1 1-1,0 1 0,-1-1 0,-4 4 1,6-1-35,0 0 0,0 0 1,0 0-1,0 1 0,1 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 1,1 0-1,0 0 0,0 0 0,0 0 1,2 11-1,0-6 6,0 0 1,0 0-1,1 0 0,1-1 0,0 1 1,0-1-1,1 0 0,6 10 0,-1-7-37,0 0-1,1-1 0,1-1 0,20 17 0,-18-17 27,-1 1-1,0 1 0,13 17 0,-25-29 23,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 1 1,-2 0-1,1 1 13,-1-1 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1 0 0,-5 2 0,-10 1-18,0 0 1,0 0 0,-22 0-1,31-3-137,-2-4-2235,15-9 86,26-19-1713,14-7-770</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3418.27">2597 384 5170,'0'0'7844,"-16"21"-6918,-50 69-259,63-85-621,-1 0 1,1 1-1,0-1 0,0 0 1,0 1-1,1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,2 0 0,-1 1 1,0-1-1,1 0 1,2 8-1,-2-12-40,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 0 0,4 0-1,56 0 109,-55 0-38,-4-1-41,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,-1-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1-1 0,0 1 0,0-7-1,1 5-23,-1-1 1,0 0-1,0 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,-1 1 0,1 0 0,-1 0 1,-5-5-1,0 5-22,0-1-1,0 1 1,0 1 0,-1 0-1,1 0 1,-1 1 0,1 0 0,-1 1-1,0 0 1,0 0 0,0 1-1,-10 1 1,18-1 2,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,-1 3-1,0 2-15,0 0 0,0 0 0,1 0 0,0 0 0,0 1-1,0-1 1,1 10 0,0-14-7,0 0-1,0-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,-1 0-1,1-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 1,0-1-1,3 1 0,6 1-200,1 0 1,0-1-1,20 0 0,-28-1 195,17 1-102,0-1-1,0-1 1,0-1-1,-1 0 1,1-2-1,0 0 1,-1-2-1,0 0 1,30-14-1,-18 5-34,-2-2 0,0-2-1,39-29 1,-59 39 194,1-1 1,-1 0-1,-1 0 0,0-1 1,0-1-1,-1 1 0,-1-1 0,0 0 1,0-1-1,-1 0 0,5-18 1,63-198 317,-114 417 1658,-82 291-515,106-416-1399,2 1 1,4 0 0,2 1-1,2 83 1,5-146-88,1 1-1,0-1 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 1 0,0-1 1,1 2-1,-1-3 1,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1-1 1,0 1-1,2-2 0,2 0 32,-1-1-1,1 0 1,-1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,-1 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1-1 0,0 0-1,1-5 1,5-8 31,-2-1 0,7-37 0,-9 37-124,-2 1 0,0 0 0,-2-1 0,0 1 0,0-1 0,-8-34-1,7 45 49,-1 0-1,-1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,-1 0 0,0 0 1,0 1-1,0-1 0,-1 1 0,0 0 0,0 1 0,0 0 0,-1 0 0,-10-7 0,-64-26 454,74 36-448,44 3-693,0-1 0,0-2 0,0-2-1,-1-1 1,71-21 0,-65 12 620,0-1-1,-2-3 0,0-1 0,-1-2 1,69-49-1,-99 62 155,-1 0-1,0-1 1,0 0 0,-1-1 0,0 1-1,0-1 1,-1-1 0,0 1 0,-1-1-1,-1 0 1,0 0 0,0-1-1,-1 1 1,3-21 0,-1-12 553,-2-1-1,-4-73 1,-1 42 295,-7 92-847,-22 75 239,-27 127 0,55-207-281,-15 82-55,4 0 0,4 1 0,4 132 0,5-223-87,1 1-1,0-1 1,0 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,0-1 1,1 0 0,-1 0-1,3 3 1,-3-4-59,1-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,4-1 1,35-2-3042,0-13-1358</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3638.51">3277 531 6515,'0'0'7091,"156"-65"-6707,-41 38-159,1 0-81,-7-4-80,-8 8-48,-33-4 80,-27 12-96,-27-1-897,-14 12-1120,0 1-1904</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4346.51">294 1061 7251,'0'0'3333,"-14"30"-2330,14-29-995,-96 230 1475,53-118-644,-34 107 466,67-184-1057,2 0 0,1 0-1,2 1 1,0 49 0,5-73-195,-1 2-13,1 1 0,1-1 0,0 0 1,2 1-1,4 18 0,-6-29-42,1-1-1,0 0 0,0 0 0,1 1 1,-1-1-1,1-1 0,0 1 1,-1 0-1,2-1 0,-1 1 0,0-1 1,1 0-1,0 0 0,0 0 1,-1-1-1,2 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,8 1 1,4 1-64,0-1 1,1 0-1,-1-2 0,1 0 1,0-1-1,0-1 1,-1 0-1,1-1 1,-1-1-1,1-1 1,-1-1-1,0 0 0,23-11 1,-26 10-415,0-1 1,-1 0-1,1-2 0,-1 1 0,-1-1 1,0-1-1,0 0 0,-1-1 1,15-19-1,-23 26 71,0 0-1,0 0 0,-1 0 1,0 0-1,0-1 1,0 1-1,2-7 1,-1-30-3822</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4582.59">233 1712 4674,'0'0'7524,"61"0"-7028,-7 0-224,7-8-48,1-7-224,-8-8-448,0-1-865,-26 1-992,-22-4-1505</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4748.33">233 1261 1985,'0'0'10501,"136"-80"-10261,-68 72-96,6 8-144,-12 0-48,-1 27-801,-14 15-1199,-6 12-1426,-7 8-2033</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4999.45">1014 1594 4882,'0'0'12118,"-54"4"-12086,20 46 32,-20 11 96,6 9-112,14-1-48,7-4-32,0-7-336,6-4-1025,8-12-1280,6-19-1073,0-15-1008</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5198.7">796 1569 384,'0'0'15511,"95"35"-14630,-67 15-385,-8 0-192,0 4-176,1 4-48,-1-4-80,-6 3-96,6-10-1024,7-5-1089,0-11-1297,7-16-1840</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6002.42">1449 1640 656,'0'0'12441,"-17"2"-11825,4-1-495,6-1-58,0 0 0,1 1 1,-1 0-1,0 0 0,0 1 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1 0 1,0 0-1,0 1 0,1 0 0,-11 8 1,7-3 40,0 0 1,1 0-1,1 1 1,-1 0-1,2 1 0,-1-1 1,1 1-1,1 0 1,0 1-1,-3 13 1,2-3 61,2 0 1,0 1 0,2 0-1,1 36 1,1-54-155,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,7 2 0,9 1 3,-1 0 0,1-1 0,0-1 0,0-1 0,36-1 0,-41-1-14,0-1 0,0-1 0,0-1 0,-1 0 0,1-1 0,-1-1 0,1 0 0,-1 0 0,-1-2 0,23-13 0,-10 3-126,-1-1 0,-1-2 0,0 0 0,26-31 0,-44 44 111,0 0-1,0 0 1,-1 0-1,0 0 1,-1-1-1,0 0 1,0 0 0,-1 0-1,0-1 1,0 1-1,0-1 1,-2 0 0,1 1-1,-1-1 1,0 0-1,-1 0 1,0 0 0,0 0-1,-2-11 1,1 19 18,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-3-1 0,-35 6-60,31-3 74,0 2 0,1-1-1,-1 1 1,1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,1 0 0,-1 0-1,1 0 1,0 1 0,-6 14 0,2-3 23,0 0 0,2 1 0,0 0 1,1 1-1,-4 25 0,5 13-24,4-57-26,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,2 2 0,7-2 26,1 0 1,-1-1 0,1 0-1,-1 0 1,1-1 0,-1-1-1,0 0 1,1-1 0,-1 0-1,0 0 1,0-1 0,-1-1-1,1 0 1,-1 0 0,0-1-1,17-13 1,5-5-87,-2-2 1,-1 0 0,45-54-1,-52 53 39,-2 0 0,0-1 0,-2-1-1,-1-1 1,-1-1 0,-2 0 0,-1-1-1,-2 0 1,-1-1 0,-1 0 0,-2-1-1,-2 1 1,-1-1 0,0-47 0,-4 42 6,-15 58-406,-7 25 568,2 2-1,2 0 1,2 2-1,2-1 1,3 2-1,1-1 1,3 2 0,-3 77-1,10-102-102,-1-10-30,1 0 0,0 0 0,2 0 0,3 18 0,-5-29-16,1-1 1,0 0-1,1 1 0,-1-1 0,0 0 1,1 0-1,0 1 0,0-1 1,0-1-1,0 1 0,0 0 0,0 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 0 0,6 2 1,6 1-235,0-2-1,0 1 1,0-2 0,0 0 0,0-1 0,0-1 0,0 0-1,16-3 1,-12 0-1243,0 0-1,0-2 0,21-8 1,9-8-4358</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6696.94">2862 1592 2049,'0'0'9167,"0"1"-9138,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,-19 56 427,2 1 1,3 0-1,3 1 0,2 1 0,2 0 0,3 90 1,4-148-474,0 0 0,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,1 1 3,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,2-2 1,6-7 19,0 0 0,0 0 0,-1-1-1,-1-1 1,0 0 0,-1 0 0,0 0 0,12-26 0,-3-2 135,23-75 1,-42 149 123,4 45 1,-1-9-48,-1-60-189,0 4-20,0 0 0,0 0 0,1 0 0,1 0-1,1-1 1,5 20 0,-7-30-13,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,4-2 0,-2 0 30,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1 0 0,-2 0-1,1-1 1,0 1 0,-1-1 0,1 0 0,3-6 0,8-12 89,22-42-1,-27 47-83,4-11-3,-2 0 1,0-1-1,-2-1 1,-2 1 0,0-2-1,4-48 1,0-186-83,-12 261 33,1 0 1,-1 1 0,0 0-1,1-1 1,-2 1 0,1 0-1,0-1 1,-1 1 0,1 0-1,-1 0 1,0-1 0,0 1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-3-2 1,3 4-54,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,1 2 0,-6 24-1680,5-26 1673,-1 44-3185,1-1-1172</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7101.18">3658 1798 3426,'0'0'10095,"-21"17"-9375,-64 60-98,79-70-531,-1 1 0,1-1 0,1 1-1,-1 0 1,1 0 0,1 1 0,-1 0 0,1-1 0,1 1 0,-4 16 0,4-6 87,1-1 1,0 0 0,2 31-1,1-20-142,-1-27-39,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,3-2 0,2 1 17,0 0-1,-1 0 0,1-1 0,0 0 1,0 0-1,-1-1 0,1 1 1,7-6-1,-2-2 63,1-1 0,-1 0 0,-1-1-1,0 0 1,-1 0 0,0-1 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,8-25 0,-8 17-62,-1 0 1,-1-1 0,0 0 0,-2 0 0,-1 0 0,-1 0 0,-3-26 0,2 46-15,0 0 1,0 0-1,0 0 1,-1 0 0,0 0-1,1 1 1,-1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 1 1,0 0-1,-6 0 1,5-1-90,0 1 1,-1 0-1,1 0 0,-1 1 1,1 0-1,-1-1 0,1 1 1,0 1-1,-8 2 0,11-4-84,-1 1 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,1 0 1,-1 0 0,0 0-1,0 2 1,0 19-3629,1-4-1072</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7303.11">3671 1798 3602</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7913.5">3671 1785 3602,'137'11'1536,"-135"-10"-1407,1-1 0,0 0-1,-1 1 1,1-1 0,-1 1-1,1 0 1,0 0 0,-1 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,3 3 0,2 14 834,-6-11-537,6 23 417,-1 1 0,-1-1 0,-2 1 0,-1 0 0,-3 45 0,1-30-421,-1-45-367,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,1 0 36,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-2-1,0-5-85,0 0-1,1 0 1,0 0-1,0 0 1,1-1 0,-1 1-1,2 0 1,-1 0 0,1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,1 0-1,0 1 1,0-1 0,1 1-1,0 0 1,1 0 0,-1 0-1,1 1 1,1-1 0,6-6-1,16-13-380,0 1 1,2 1-1,59-36 0,-44 30 88,-21 14 33,-1 0 0,-1-2 0,-1-1 0,26-28 0,-40 39 354,-1-1-1,1 0 1,-2 0 0,1 0 0,-1 0-1,-1-1 1,0 0 0,0 0 0,-1-1 0,0 1-1,0 0 1,-2-1 0,1 0 0,-1-14-1,-3 3 1150,2 22-1241,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,-13 38-129,11-30 120,-18 74 91,3 1-1,4 0 1,-2 100 0,15-182-53,8-6 184,5-12-33,8-12-64,2 0 1,1 2 0,29-26 0,-45 46-143,0 0-1,1 0 1,1 1 0,-1 0 0,1 1 0,0 0-1,0 0 1,0 1 0,0 1 0,1 0 0,0 0-1,0 1 1,0 0 0,19 0 0,-20 2 65,17 3-464,-26-1 381,0-1-1,-1 0 0,1 1 1,0-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 1 0,1 0 1,-1-1-1,0 1 0,0-1 1,0 1-1,-1 2 0,1 0 36,-1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 0,-1 1 1,-3 2-1,-59 38 34,52-35-56,-25 15-635,-56 23 0,102-45 681,-1 0 0,1 1 0,0 0-1,-1 0 1,1 1 0,-1 0 0,0 0 0,0 1 0,12 8-1,-11-7-188,0 0 0,0-1 0,0 0 0,1 0 0,0-1 0,-1 0-1,1 0 1,13 1 0,38-3-6575,-31-1 1767</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8498.94">4758 1589 3314,'0'0'12194,"0"-8"-11768,0 5-444,0 5 80,-14 183 1039,1-23 533,13-185-1355,-1 2-204,1 0 0,2-1 1,0 1-1,1 0 0,7-29 1,3 12-188,1 0-1,2 0 1,1 2 0,2 0 0,37-52 0,-54 85 84,1-1 0,0 1 0,-1-1 0,1 1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0 0 0,0-1 0,1 1-1,7 0 1,-11 9-361,0 3 394,-1 1 0,-1-1 1,0 0-1,0 0 1,-1 0-1,-1 0 0,0 0 1,0 0-1,-1-1 0,-1 1 1,-7 13-1,-10 9 102,9-17-64,2 2 0,-12 21-1,21-34-56,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,2-1 0,-1 0-1,2 9 1,-1-11 13,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,5 1 0,-3-1 11,-1 1 1,1 0 0,0 0-1,-1 0 1,0 1-1,1-1 1,-1 1-1,5 4 1,-9-6-12,1-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-2 1-1,-23 10 144,21-9-108,-68 29 386,23-9-521,-64 20 1,113-42-217,-7 0-8,18-18-11663</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8814.44">5064 1702 1072,'0'0'12897,"-7"12"-12041,-2 6-644,0-1 0,1 1-1,0 1 1,2-1 0,0 1-1,1 0 1,1 1 0,-2 20-1,6-28-192,0-10-21,0 0-1,-1-1 1,1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,1 3 1,-1-4 3,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,2-1 0,-1 1 32,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1-1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 0-1,1-5 1,1-6-246,0-1 0,-1 1 0,-1-1 0,0-21 1,-3 35-424,-1 1 1,1-1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-4 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9147.33">5302 1777 2817,'0'0'11320,"-26"21"-10600,-79 70-194,101-89-502,1 1-1,0 0 1,0 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,1 1 0,0 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,1 1 0,-1-1 0,1 0-1,1 7 1,-1 1-31,0-11-2,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,2 2-1,0-1 5,0 0 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 0 0,1 0 0,4-1 0,-1 0 52,0 0-1,-1 0 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1-1 0,0 0-1,8-6 1,-8 3-14,-1 0 0,0-1 1,-1 0-1,1 0 1,-1 0-1,0 0 0,-1-1 1,0 1-1,0-1 1,-1 0-1,0 0 0,0 0 1,-1 0-1,0 0 1,0 0-1,-1 0 0,0 0 1,0-1-1,-1 1 1,0 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,-1 1-1,-1-1 0,-6-12 1,7 16-303,-6-14-865,6 6-3010,3 7-430</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9678.27">5431 1531 4978,'0'0'10530,"0"17"-10143,0 23 134,-2 1-1,-2-1 0,-11 48 0,-7-3-53,-17 60-29,35-166 709,4-15-1091,3 21-50,1 0 0,0 0 0,2 1 0,-1-1 1,2 1-1,9-15 0,-12 21-20,0 0 1,1 1 0,0 0-1,0 0 1,1 1 0,0-1-1,0 1 1,1 1 0,-1-1-1,1 1 1,1 0 0,12-6-1,-18 10-2,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,1 0 0,-1-1 0,0 1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,2 3 0,-2-1-19,0-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 5-1,0-4 24,-1 0 0,1-1 1,0 1-1,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 3 0,-61 36-142,46-30 43,37-3 119,0-1 1,29 12-1,-37-17 28,70 44 749,-74-45-729,-1-1-158,-16-1-5772,-8 0-1148</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">118 174 3185,'0'0'6897,"0"-5"-6033,0-25 3026,-8 44-3837,-37 173 250,26-113-143,-18 130-1,29-90-98,8-113 257,0-4-227,0-23-633,-1 5-274,1 0 0,1 1 0,1-1 0,1 0 0,0 0 0,10-27 0,56-183-8300,-63 204 8505</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="203.39">105 187 352</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="846.42">105 187 352,'0'5'159,"3"-12"1850,6-16 4168,-3 21-3897,3 15-1793,3 16-131,2-1-1,1 0 1,1 0-1,1-3 1,2 1-1,24 25 1,-24-27-295,-1 0 1,19 34-1,-36-58-49,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 0,19-22 123,-18 22-129,186-216-522,-113 136 586,-75 80-68,0 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 1-1,4 21-13,-3 38-46,-1-50 87,-3 34 50,-1 2 0,-13 53-1,8-55-36,2 0-1,-1 56 0,6-59-19,1-30-17,-1 0 0,2 1 1,0-1-1,0 0 0,1 0 1,0 0-1,1 0 0,0 1 0,5 12 1,-6-22-3,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,5-3-1,0 1 11,-1 0 0,0-1-1,1 0 1,-1-1-1,0 1 1,0 0-1,0-1 1,10-10-1,8-13-50,-1-2 0,-1 1 0,-2-3 0,-1 0 1,-1 0-1,-2-2 0,0 1 0,16-60 0,-30 67 110,-2 24 176,0 5-398,-1 14 141,-2-2-1,0 2 0,-1-1 0,-9 23 0,-8 41 222,18-58-156,1 0 0,3 25 0,0-14 70,-1-33-129,2-1 0,-2 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,35-4-406,-27 1-28,-1 0 1,0 0 0,0-1-1,0 0 1,-1-1 0,1 1-1,-1-1 1,8-10 0,32-28-3921</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1044.52">1225 156 5042,'0'0'9557,"0"-23"-9717,6 23-1329,2 4-1424,6 19 47,6 0-3233</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1351.53">1225 156 4402,'105'133'2294,"-98"-117"-1207,-14-9 70,-24-9 858,18 0-1389,13 2-625,-8-1 113,0 0 0,0 1 0,0 0-1,0 1 1,0 0 0,-1 0-1,1 0 1,1 1 0,-1 0 0,1 1-1,-1 0 1,1 0 0,0 0-1,0 1 1,0 0 0,-6 5 0,2 0-44,2 1 0,-1 0 0,1 0 1,0 0-1,1 1 0,1 0 1,-1 1-1,2 0 0,-1 0 0,1 1 1,1-2-1,1 2 0,0 0 1,1 1-1,0-1 0,1 1 1,1-1-1,0 0 0,1 1 0,0-1 1,1 1-1,3 17 0,-3-27-61,0-2 1,0 2-1,0-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,1 1-1,-1-1 0,4 3 0,-1-1-24,0-1-1,0 0 1,1 0-1,-1-1 1,1 0-1,-1 0 1,1 0-1,9 1 1,0-2-276,0 0 1,0-1 0,0-1-1,-1 0 1,2-1 0,-1 0 0,16-6-1,-19 3-486,0 1 1,-1-2-1,0 0 0,0 0 0,-1-1 0,0-1 0,0 0 0,0 0 1,0 0-1,14-18 0,-1-13-3089</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1915.42">1485 343 272,'0'0'13350,"1"-4"-13046,4 1-119,4 12 45,13 31 275,-14-25-360,0 2 0,-2 0 0,8 28 0,-11-23-43,0 0 1,-2 38 0,-2-53-83,1 1 0,-2 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 0 0,-1-1 0,0 2 0,-9 12 0,8-14-75,-4 3 546,5-23-188,4 6-383,1 0-1,0 1 1,0-1 0,0 2-1,1-2 1,0 1 0,1 0 0,-1 0-1,1 0 1,1 1 0,-1-1-1,1 1 1,1 0 0,0 0-1,0 1 1,-1 0 0,12-7 0,13-10-426,0 1 1,50-23 0,110-44 401,-235 189 1984,38-84-1794,0 0 0,2 1-1,0-1 1,1 0 0,0 1-1,2 0 1,0 1 0,1 19-1,1-37-86,0 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,2 0 0,3-1 17,-2 1-1,1-1 1,-1 1 0,1-1 0,-1-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 0 0,0-1 0,5-3 0,-2 0 27,0-1-1,0-1 1,-1 1 0,-1 0-1,1-1 1,-1 0 0,0 0-1,-1-1 1,0 0 0,-1 0-1,0 0 1,0 0 0,2-12-1,-2 0-128,0 0 0,-2 0-1,0 1 1,-5-42 0,4 60 90,-1 0 1,1 0 0,-1-1-1,1 1 1,-1 0 0,0 0-1,0 1 1,0 0 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1 0,-4-1 0,-3 0-747,0 1 0,0-1 0,1 1 0,-17 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2388.62">2319 326 5747,'0'0'9580,"-9"-12"-8705,-32-37-309,37 46-547,0 0 0,0 1 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 1 1,-1 0-1,0-1 0,-1 2 0,2-1 1,-1 0-1,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 1,1 1-1,0 1 0,-1-1 0,-4 4 1,6-1-35,0 0 0,0 0 1,0 0-1,0 1 0,1 0 1,0-1-1,0 0 0,1 1 1,-1 0-1,1 0 0,0 0 1,1 0-1,0 0 0,0 0 0,0 0 1,2 11-1,0-6 6,0-1 1,0 1-1,1 0 0,1-1 0,0 1 1,0-1-1,1 0 0,6 9 0,-1-6-37,0 0-1,1-1 0,1-1 0,21 17 0,-19-18 27,-1 2-1,0 1 0,13 17 0,-25-29 23,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 1 1,0-1-1,-1 0 0,1-1 0,0 2 1,-2 0-1,1 1 13,-1-1 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,1 0 0,-5 2 0,-10 1-18,0 0 1,-1 0 0,-21 0-1,31-3-137,-2-4-2235,15-9 86,26-18-1713,15-8-770</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3418.27">2613 380 5170,'0'0'7844,"-16"20"-6918,-51 69-259,64-84-621,-1 0 1,1 1-1,0-1 0,0 0 1,0 1-1,1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,2 0 0,-1 1 1,0-1-1,1 0 1,2 8-1,-2-12-40,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 0 0,4 0-1,57 0 109,-56 0-38,-4-1-41,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,-1-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1-1 0,0 1 0,0-7-1,1 6-23,-1-2 1,0 0-1,0 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,-1 0 0,1 0 0,-1 0 1,-5-5-1,0 5-22,0-1-1,0 1 1,0 1 0,-1 0-1,1 0 1,-1 1 0,1 0 0,-1 1-1,-1 0 1,1 0 0,0 1-1,-10 1 1,18-1 2,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,-1 3-1,0 2-15,0 0 0,0 0 0,1-1 0,0 1 0,0 1-1,0-1 1,1 10 0,0-14-7,0 0-1,0-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,-1 0-1,1-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 1,0-1-1,3 1 0,6 1-200,1 0 1,0-1-1,21 0 0,-29-1 195,17 1-102,0-1-1,0-1 1,0-1-1,-1 0 1,1-2-1,0 0 1,0-2-1,-1 0 1,30-14-1,-18 5-34,-2-2 0,1-1-1,38-30 1,-59 39 194,1-1 1,-1 1-1,-1-1 0,0-1 1,0-1-1,-1 1 0,-1-1 0,1 0 1,-1-1-1,-1 1 0,5-19 1,63-195 317,-114 411 1658,-83 289-515,107-412-1399,2 1 1,4 1 0,2 0-1,2 82 1,5-144-88,1 1-1,0-1 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 1 0,0-1 1,1 2-1,-1-3 1,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1-1 1,0 1-1,2-2 0,2 0 32,-1-1-1,1 0 1,-1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,-1 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1-1 0,0 1-1,1-6 1,5-8 31,-2-1 0,8-36 0,-10 36-124,-2 1 0,0 0 0,-2 0 0,0 0 0,0-1 0,-8-33-1,7 44 49,-1 0-1,-1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,0 0 1,0 2-1,0-2 0,-1 1 0,0 0 0,0 1 0,0 0 0,-1 0 0,-10-7 0,-64-25 454,73 35-448,46 3-693,-1-1 0,0-2 0,0-2-1,0-1 1,70-21 0,-65 12 620,1-1-1,-3-3 0,0 0 0,-1-3 1,70-48-1,-100 61 155,-1 0-1,0-1 1,0 0 0,-1-1 0,0 1-1,0-1 1,0 0 0,-1 0 0,-1-1-1,-1 0 1,0 0 0,0-1-1,-1 1 1,3-20 0,-1-13 553,-2 0-1,-4-73 1,-1 42 295,-7 91-847,-23 74 239,-26 125 0,55-204-281,-15 81-55,4 0 0,4 1 0,4 130 0,5-220-87,1 1-1,0-1 1,0 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,0-1 1,1 0 0,-1 0-1,3 3 1,-3-4-59,1-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,4-1 1,35-2-3042,1-13-1358</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3638.51">3297 525 6515,'0'0'7091,"157"-64"-6707,-41 37-159,0 0-81,-6-3-80,-8 7-48,-34-4 80,-27 12-96,-27 0-897,-14 11-1120,0 1-1904</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4346.51">296 1049 7251,'0'0'3333,"-14"29"-2330,14-28-995,-97 228 1475,54-118-644,-35 107 466,68-182-1057,2-1 0,1 1-1,2 0 1,0 49 0,5-72-195,-1 2-13,1 1 0,1-1 0,0-1 1,2 2-1,4 18 0,-6-29-42,1-1-1,0 0 0,0 0 0,1 1 1,-1-1-1,1-2 0,0 2 1,-1 0-1,2-1 0,-1 1 0,0-1 1,1 0-1,0 0 0,1 0 1,-2-1-1,2 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,8 1 1,4 1-64,0-1 1,1 0-1,-1-2 0,1 0 1,0-1-1,0-1 1,0 0-1,0-1 1,-1-1-1,1-1 1,-1-1-1,0 0 0,23-11 1,-26 10-415,1-1 1,-2 1-1,1-3 0,-1 1 0,-1-1 1,0-1-1,0 0 0,-1-1 1,15-18-1,-23 25 71,0 0-1,0 0 0,-1 0 1,0 0-1,0-1 1,0 1-1,2-7 1,-1-30-3822</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4582.59">234 1692 4674,'0'0'7524,"62"0"-7028,-8 0-224,8-8-48,0-6-224,-8-9-448,1-1-865,-27 1-992,-22-3-1505</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4748.33">234 1246 1985,'0'0'10501,"137"-79"-10261,-68 71-96,5 8-144,-11 0-48,-2 27-801,-14 15-1199,-6 11-1426,-6 8-2033</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4999.45">1020 1576 4882,'0'0'12118,"-54"4"-12086,20 45 32,-21 11 96,7 9-112,14 0-48,7-5-32,-1-7-336,7-3-1025,8-13-1280,6-18-1073,0-15-1008</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5198.7">801 1551 384,'0'0'15511,"95"35"-14630,-66 14-385,-9 0-192,0 5-176,1 3-48,-1-4-80,-6 4-96,6-11-1024,7-4-1089,1-12-1297,6-15-1840</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6002.42">1458 1621 656,'0'0'12441,"-17"2"-11825,4-1-495,6-1-58,0 0 0,1 1 1,-1 0-1,-1 0 0,1 1 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1 0 1,0 0-1,0 1 0,1 0 0,-11 8 1,7-3 40,0-1 1,1 1-1,1 1 1,-1 0-1,2 1 0,-1-1 1,1 1-1,1 0 1,0 0-1,-3 14 1,2-3 61,1 0 1,1 0 0,2 1-1,1 35 1,1-53-155,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1-2 0,0 2 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,7 2 0,9 1 3,-1 0 0,1-1 0,0-1 0,1-1 0,35-1 0,-41-1-14,0-1 0,0-1 0,0-1 0,-1 0 0,1-1 0,0-1 0,0 0 0,-1 0 0,-1-2 0,23-12 0,-10 2-126,-1-1 0,-1-2 0,1 0 0,25-30 0,-44 43 111,0 0-1,0 0 1,-1 0-1,0 0 1,-1-1-1,0 1 1,0-1 0,-1 0-1,0-1 1,0 1-1,0-1 1,-2 0 0,1 1-1,-1-1 1,0 0-1,-1 1 1,0-1 0,0 0-1,-2-11 1,1 19 18,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-3-1 0,-35 6-60,31-3 74,0 2 0,1-1-1,-1 1 1,1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,1 1 0,-1 0-1,1 0 1,0 1 0,-6 14 0,2-3 23,0-1 0,2 2 0,0 0 1,1 1-1,-4 24 0,5 14-24,4-58-26,1 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,2 2 0,7-2 26,1 0 1,-1-1 0,1 0-1,-1 0 1,1-1 0,-1-1-1,1 0 1,0-1 0,-1 0-1,0 0 1,0-1 0,-1-1-1,1 0 1,-1 0 0,0-1-1,17-12 1,5-6-87,-1-2 1,-2 0 0,45-53-1,-52 53 39,-1-1 0,-1-1 0,-2 0-1,-1-2 1,-1-1 0,-2 1 0,-1-2-1,-2 0 1,-1 0 0,-1-1 0,-2 0-1,-2 0 1,-1-1 0,0-46 0,-4 42 6,-15 57-406,-7 24 568,2 3-1,2-1 1,2 2-1,2 0 1,3 1-1,1 0 1,3 1 0,-3 77-1,10-102-102,-1-9-30,1 0 0,0 0 0,2 0 0,3 17 0,-5-28-16,1-1 1,0 0-1,1 1 0,-1-1 0,0 0 1,1 0-1,0 1 0,0-1 1,0-1-1,0 1 0,0 0 0,0 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 0 0,6 2 1,6 1-235,0-2-1,0 1 1,0-2 0,0 0 0,0-1 0,1-1 0,-1 0-1,16-3 1,-12 0-1243,0 0-1,0-2 0,21-8 1,10-8-4358</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6696.94">2879 1574 2049,'0'0'9167,"0"1"-9138,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,-19 55 427,2 1 1,3 1-1,3 0 0,2 1 0,2 1 0,3 88 1,4-146-474,0 0 0,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,1 1 3,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,2-2 1,6-7 19,0 0 0,0 0 0,0-1-1,-2 0 1,0-1 0,-1 0 0,0 0 0,12-26 0,-3-1 135,23-75 1,-42 148 123,4 44 1,-1-9-48,-1-59-189,0 4-20,0 0 0,0-1 0,1 1 0,1 0-1,1-1 1,5 20 0,-7-30-13,1 1 0,-1-2 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,4-2 0,-2 0 30,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1 0 0,-2 0-1,1-1 1,0 1 0,-1-1 0,1 1 0,3-7 0,8-12 89,23-41-1,-28 46-83,4-11-3,-2 0 1,0 0-1,-2-2 1,-2 1 0,0-1-1,4-48 1,0-184-83,-12 258 33,1 0 1,-1 1 0,0 0-1,1-1 1,-2 1 0,1 0-1,0-1 1,-1 1 0,1 0-1,-1 0 1,0-1 0,0 1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-3-1 1,3 3-54,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,1 2 0,-6 24-1680,5-26 1673,-1 44-3185,1-2-1172</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7101.18">3680 1777 3426,'0'0'10095,"-21"17"-9375,-64 59-98,79-69-531,-1 1 0,1-1 0,1 1-1,-1 0 1,1 0 0,0 1 0,0-1 0,1 0 0,1 1 0,-4 16 0,4-6 87,1-1 1,0-1 0,2 32-1,1-21-142,-1-26-39,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,2 0 0,-2 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,3-2 0,2 1 17,0 0-1,-1 0 0,1-1 0,0 0 1,0 0-1,-1-1 0,1 1 1,7-6-1,-2-1 63,1-2 0,-1 0 0,-1-1-1,0 0 1,-1 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,-2 0 0,8-25 0,-8 18-62,-1-1 1,-1-1 0,0 0 0,-2 1 0,-1-1 0,-1 0 0,-3-25 0,2 45-15,0 0 1,0 0-1,0 0 1,-1 0 0,0 0-1,1 1 1,-1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,-1 1-1,1 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 1 1,0 0-1,-6 0 1,5-1-90,0 1 1,-1 0-1,1 0 0,-1 1 1,1 0-1,-1-1 0,1 1 1,0 1-1,-8 2 0,11-4-84,-1 1 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,1 0 1,-1 0 0,0 0-1,0 2 1,0 19-3629,1-5-1072</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7303.11">3693 1777 3602</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7913.5">3693 1764 3602,'138'11'1536,"-136"-10"-1407,1-1 0,0 0-1,-1 1 1,1-1 0,-1 1-1,1 0 1,0 0 0,-1 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,4 3 0,1 14 834,-6-11-537,6 22 417,-1 2 0,-1-1 0,-2 0 0,-1 1 0,-3 44 0,1-29-421,-1-45-367,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,1 0 36,1 0 0,-2 0 0,2 0 1,0 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,-1-1 1,1 0-1,0 1 0,0 0 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-2-1,0-5-85,0 0-1,1 0 1,0 0-1,0 0 1,1-1 0,-1 1-1,2 0 1,-1 0 0,1 1-1,1-1 1,0 0 0,0 0-1,0 0 1,1 0-1,0 1 1,0-1 0,1 1-1,0 0 1,1 0 0,-1 1-1,2 0 1,0-1 0,6-6-1,16-13-380,0 1 1,2 2-1,60-37 0,-45 31 88,-21 13 33,-1 0 0,-1-2 0,0 0 0,25-29 0,-40 39 354,-1-1-1,1 0 1,-2 0 0,1 1 0,-1-1-1,-1-1 1,0 0 0,0 0 0,-1-1 0,0 1-1,0 0 1,-2 0 0,1-1 0,-1-14-1,-3 3 1150,2 22-1241,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,-13 38-129,11-30 120,-18 73 91,3 1-1,4 0 1,-2 99 0,15-180-53,8-6 184,5-12-33,8-12-64,2 1 1,1 1 0,30-26 0,-46 47-143,0-1-1,1 0 1,1 1 0,-1 0 0,1 1 0,0 0-1,0 0 1,0 1 0,0 1 0,1 0 0,0 0-1,0 1 1,0 0 0,20 0 0,-21 2 65,17 3-464,-26-1 381,0-1-1,-1 0 0,1 1 1,0-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 1 0,1 0 1,-1-1-1,0 1 0,0-1 1,0 1-1,-1 2 0,1 0 36,-1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,0-1 1,-1 1-1,1-1 0,-1 1 1,-3 2-1,-60 38 34,53-35-56,-25 14-635,-57 24 0,103-45 681,-1 0 0,1 1 0,1 0-1,-2 0 1,1 1 0,-1 0 0,0 0 0,0 1 0,12 7-1,-11-6-188,0 0 0,0-1 0,0 0 0,1 0 0,0-1 0,-1 0-1,1 0 1,13 1 0,39-3-6575,-32-1 1767</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8498.94">4787 1571 3314,'0'0'12194,"0"-8"-11768,0 5-444,0 5 80,-14 181 1039,1-23 533,13-183-1355,-1 2-204,1 1 0,2-2 1,0 1-1,1 0 0,7-28 1,3 11-188,1 1-1,2-1 1,1 3 0,3-1 0,36-51 0,-54 84 84,1-1 0,0 1 0,-1-1 0,1 1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0 1 0,0-2 0,1 1-1,7 0 1,-11 8-361,0 4 394,-1 1 0,-1-1 1,0 0-1,0 0 1,-1 0-1,-1 0 0,0-1 1,0 1-1,-1-1 0,-1 1 1,-7 13-1,-10 8 102,9-16-64,2 2 0,-12 21-1,21-34-56,0-2 0,0 2 0,0 0 0,1 0 0,-1 0 0,1 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,2-1 0,-1 0-1,2 9 1,-1-11 13,1 0 0,0 0 0,0 0 0,0-2 0,0 2 0,1-1 0,-1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,5 1 0,-3-1 11,-1 1 1,1 0 0,0 0-1,-1 0 1,0 1-1,1-1 1,-1 1-1,5 4 1,-9-6-12,1-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-2 1-1,-23 9 144,21-8-108,-68 29 386,22-9-521,-63 19 1,113-41-217,-7 0-8,18-17-11663</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8814.44">5095 1682 1072,'0'0'12897,"-7"12"-12041,-2 6-644,0-1 0,1 1-1,0 0 1,2 0 0,0 1-1,1 0 1,1 1 0,-2 19-1,6-27-192,0-10-21,0 0-1,-1-1 1,1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,1 3 1,-1-4 3,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,2-1 0,-1 1 32,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1-1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 0-1,1-5 1,1-6-246,0 0 0,-1 0 0,-1-1 0,0-21 1,-3 35-424,-1 1 1,1-1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-4 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9147.33">5334 1757 2817,'0'0'11320,"-26"20"-10600,-79 70-194,101-88-502,1 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,1 1 0,0 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0-1,1 7 1,-1 1-31,0-11-2,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,2 2-1,1-1 5,-1 0 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 0 0,1 0 0,4-1 0,-1 0 52,0 0-1,-1 0 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1-1 0,0 0-1,8-6 1,-8 3-14,-1 0 0,0-1 1,-1 0-1,1 0 1,-1 1-1,0-1 0,-1-1 1,0 1-1,0-1 1,-1 0-1,0 0 0,0 0 1,-1 0-1,0 0 1,0 0-1,-1 0 0,0 1 1,0-2-1,-1 1 1,0 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,-1 1-1,-1-1 0,-6-11 1,7 15-303,-6-14-865,6 6-3010,3 7-430</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9678.27">5464 1513 4978,'0'0'10530,"0"17"-10143,0 23 134,-2 0-1,-2 0 0,-11 47 0,-7-3-53,-17 59-29,35-164 709,4-14-1091,3 20-50,1 0 0,0 0 0,2 1 0,-1 0 1,2 0-1,9-15 0,-12 21-20,0 0 1,1 1 0,0 0-1,0 1 1,1 0 0,0-1-1,0 1 1,1 1 0,-1-1-1,1 1 1,1 0 0,12-6-1,-17 10-2,-2 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,1 0 0,-1-1 0,0 1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,2 3 0,-2-1-19,0-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 4-1,0-3 24,-1 0 0,1-1 1,0 1-1,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 3 0,-62 35-142,47-29 43,37-3 119,0-1 1,29 12-1,-36-17 28,69 43 749,-74-44-729,-1-1-158,-16-1-5772,-8 0-1148</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6502,7 +6502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B3A6B1-91E6-45B6-AF27-B360AB20DEBB}">
   <dimension ref="B3:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -6829,8 +6829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J207"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199:C200"/>
+    <sheetView topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183:C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7459,8 +7459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CBD97B-9891-44B9-9DA8-3C71B6EDF689}">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
